--- a/PP_RRSR_IDspreadsheet.xlsx
+++ b/PP_RRSR_IDspreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20176208\surfdrive\Documents\_teaching\_2020-21_Q1_HTI-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD86BD7-7004-4BE2-B942-BD09EEEEEC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795B407-108B-4C1E-BC57-711FB45B4E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,27 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="424">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Paper title</t>
-  </si>
-  <si>
-    <t>Hypothesis quote</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>Questionnaire Quote</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Journal</t>
   </si>
   <si>
     <t>Mimicry of ingroup and outgroup emotional expressions</t>
@@ -1314,6 +1296,43 @@
   </si>
   <si>
     <t>Psychonomic Bulletin and Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST TITLE
+</t>
+  </si>
+  <si>
+    <t>TEST HYPOTHESIS QUOTE</t>
+  </si>
+  <si>
+    <t>TEST DOI</t>
+  </si>
+  <si>
+    <t>TEST STATISTICAL HYPOTHESIS</t>
+  </si>
+  <si>
+    <t>TEST YEAR</t>
+  </si>
+  <si>
+    <t>TEST JOURNAL</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>hyp_quote</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>questionnaire_quote</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>journal</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1391,6 +1410,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1609,12 +1631,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1623,6364 +1648,6387 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>419</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>34216047</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2016</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>41576289</v>
+        <v>34216047</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4">
         <v>2016</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>14312202</v>
+        <v>41576289</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4">
         <v>2016</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>15926494</v>
+        <v>14312202</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>40015614</v>
+        <v>15926494</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4">
         <v>2017</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>74028678</v>
+        <v>40015614</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4">
         <v>2017</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>35362984</v>
+        <v>74028678</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4">
         <v>2017</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>75553782</v>
+        <v>35362984</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4">
         <v>2017</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45366518</v>
+        <v>75553782</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2018</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>29545833</v>
+        <v>45366518</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4">
         <v>2018</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>99187785</v>
+        <v>29545833</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <v>2018</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>61618317</v>
+        <v>99187785</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
         <v>2018</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>83407042</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
+        <v>61618317</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="4">
         <v>2018</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>91376109</v>
+        <v>83407042</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>2018</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>69776508</v>
+        <v>91376109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4">
         <v>2018</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>60635819</v>
+        <v>69776508</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F17" s="4">
         <v>2018</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>89270001</v>
+        <v>60635819</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>77295838</v>
+        <v>89270001</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
         <v>2017</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>75903843</v>
+        <v>77295838</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4">
         <v>2017</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>60631618</v>
+        <v>75903843</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4">
         <v>2017</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>57371585</v>
+        <v>60631618</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4">
         <v>2017</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>41294073</v>
+        <v>57371585</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>82829717</v>
+        <v>41294073</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F24" s="4">
         <v>2018</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>19706661</v>
+        <v>82829717</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>41672048</v>
+        <v>19706661</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4">
         <v>2017</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>85134423</v>
+        <v>41672048</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F27" s="4">
         <v>2017</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>56471204</v>
+        <v>85134423</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F28" s="4">
         <v>2017</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>91085989</v>
+        <v>56471204</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F29" s="4">
         <v>2017</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>31738064</v>
+        <v>91085989</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F30" s="4">
         <v>2017</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>21464216</v>
+        <v>31738064</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4">
         <v>2017</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>51201022</v>
+        <v>21464216</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F32" s="4">
         <v>2017</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>82965421</v>
+        <v>51201022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F33" s="4">
         <v>2017</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>56040239</v>
+        <v>82965421</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F34" s="4">
         <v>2017</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>88510365</v>
+        <v>56040239</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F35" s="4">
         <v>2017</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>86187444</v>
+        <v>88510365</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F36" s="4">
         <v>2017</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>41247578</v>
+        <v>86187444</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F37" s="4">
         <v>2017</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>15335135</v>
+        <v>41247578</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F38" s="4">
         <v>2017</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>90082915</v>
+        <v>15335135</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F39" s="4">
         <v>2017</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>76762750</v>
+        <v>90082915</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F40" s="4">
         <v>2017</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>63346271</v>
+        <v>76762750</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F41" s="4">
         <v>2017</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>63209803</v>
+        <v>63346271</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F42" s="4">
         <v>2017</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>73601479</v>
+        <v>63209803</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F43" s="4">
         <v>2017</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>86692109</v>
+        <v>73601479</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F44" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>41638625</v>
+        <v>86692109</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F45" s="4">
         <v>2018</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>67907740</v>
+        <v>41638625</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F46" s="4">
         <v>2018</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>83166278</v>
+        <v>67907740</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F47" s="4">
         <v>2018</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44412046</v>
+        <v>83166278</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F48" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>85857289</v>
+        <v>44412046</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F49" s="4">
         <v>2017</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>79408767</v>
+        <v>85857289</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F50" s="4">
         <v>2017</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>64314769</v>
+        <v>79408767</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F51" s="4">
         <v>2017</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51317424</v>
+        <v>64314769</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F52" s="4">
         <v>2017</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>64740373</v>
+        <v>51317424</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F53" s="4">
         <v>2017</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>98401326</v>
+        <v>64740373</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F54" s="4">
         <v>2017</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>62036421</v>
+        <v>98401326</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F55" s="4">
         <v>2017</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>32998084</v>
+        <v>62036421</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F56" s="4">
         <v>2017</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>48594716</v>
+        <v>32998084</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F57" s="4">
         <v>2017</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>29264161</v>
+        <v>48594716</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F58" s="4">
         <v>2017</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>33862339</v>
+        <v>29264161</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F59" s="4">
         <v>2017</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>14961146</v>
+        <v>33862339</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F60" s="4">
         <v>2017</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>96078450</v>
+        <v>14961146</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F61" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>47465456</v>
+        <v>96078450</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F62" s="4">
         <v>2018</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>55403086</v>
+        <v>47465456</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F63" s="4">
         <v>2018</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>22822147</v>
+        <v>55403086</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F64" s="4">
         <v>2018</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
+        <v>22822147</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>50471704</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>62890900</v>
-      </c>
       <c r="B66" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F66" s="4">
         <v>2017</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>26577220</v>
+        <v>62890900</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F67" s="4">
         <v>2017</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>63208023</v>
+        <v>26577220</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F68" s="4">
         <v>2017</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>52979733</v>
+        <v>63208023</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="E69" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F69" s="4">
         <v>2017</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>94528317</v>
+        <v>52979733</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F70" s="4">
         <v>2017</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>32954649</v>
+        <v>94528317</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F71" s="4">
         <v>2017</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>75687157</v>
+        <v>32954649</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F72" s="4">
         <v>2017</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>73200578</v>
+        <v>75687157</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F73" s="4">
         <v>2017</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>28664826</v>
+        <v>73200578</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F74" s="4">
         <v>2017</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>88133098</v>
+        <v>28664826</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F75" s="4">
         <v>2017</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>37926518</v>
+        <v>88133098</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F76" s="4">
         <v>2017</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>89789803</v>
+        <v>37926518</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F77" s="4">
         <v>2017</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>12293723</v>
+        <v>89789803</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F78" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>79872597</v>
+        <v>12293723</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" s="4">
         <v>2018</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>25973191</v>
+        <v>79872597</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F80" s="4">
         <v>2018</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>17567737</v>
+        <v>25973191</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F81" s="4">
         <v>2018</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>25781564</v>
+        <v>17567737</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F82" s="4">
         <v>2018</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>74832042</v>
+        <v>25781564</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="F83" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>59067286</v>
+        <v>74832042</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F84" s="4">
         <v>2016</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>60840024</v>
+        <v>59067286</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F85" s="4">
         <v>2016</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>54012179</v>
+        <v>60840024</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F86" s="4">
         <v>2016</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>44183526</v>
+        <v>54012179</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="E87" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F87" s="4">
         <v>2016</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>83715589</v>
+        <v>44183526</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="E88" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F88" s="4">
         <v>2016</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>46540188</v>
+        <v>83715589</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F89" s="4">
         <v>2016</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>23202663</v>
+        <v>46540188</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F90" s="4">
         <v>2016</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>65124289</v>
+        <v>23202663</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F91" s="4">
         <v>2016</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>34890007</v>
+        <v>65124289</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F92" s="4">
         <v>2016</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>84953314</v>
+        <v>34890007</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F93" s="4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>21377527</v>
+        <v>84953314</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="F94" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>21362730</v>
+        <v>21377527</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F95" s="4">
         <v>2017</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>83162147</v>
+        <v>21362730</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F96" s="4">
         <v>2017</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>40242820</v>
+        <v>83162147</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="F97" s="4">
         <v>2017</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>64090661</v>
+        <v>40242820</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F98" s="4">
         <v>2017</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>49024150</v>
+        <v>64090661</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F99" s="4">
         <v>2017</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45345128</v>
+        <v>49024150</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F100" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>37777690</v>
+        <v>45345128</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F101" s="4">
         <v>2015</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>23400789</v>
+        <v>37777690</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F102" s="4">
         <v>2015</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>93103432</v>
+        <v>23400789</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F103" s="4">
         <v>2015</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>82786031</v>
+        <v>93103432</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="F104" s="4">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>50345472</v>
+        <v>82786031</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F105" s="4">
         <v>2018</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>77334592</v>
+        <v>50345472</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F106" s="4">
         <v>2018</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>23586093</v>
+        <v>77334592</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E107" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="F107" s="4">
         <v>2018</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>85837068</v>
+        <v>23586093</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="4">
         <v>2018</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>50736627</v>
+        <v>85837068</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="4">
         <v>2018</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
+        <v>50736627</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>69112736</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F110" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>99665736</v>
-      </c>
       <c r="B111" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F111" s="4">
         <v>2017</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>95230934</v>
+        <v>99665736</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F112" s="4">
         <v>2017</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>63898854</v>
+        <v>95230934</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F113" s="4">
         <v>2017</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>50267498</v>
+        <v>63898854</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="E114" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F114" s="4">
         <v>2017</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>25105070</v>
+        <v>50267498</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F115" s="4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>21095459</v>
+        <v>25105070</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F116" s="4">
         <v>2016</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>67885282</v>
+        <v>21095459</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F117" s="4">
         <v>2016</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>69446753</v>
+        <v>67885282</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F118" s="4">
         <v>2016</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>67719346</v>
+        <v>69446753</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F119" s="4">
         <v>2016</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>78165036</v>
+        <v>67719346</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F120" s="4">
         <v>2016</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>19158365</v>
+        <v>78165036</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F121" s="4">
         <v>2016</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>79177548</v>
+        <v>19158365</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F122" s="4">
         <v>2016</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>11205144</v>
+        <v>79177548</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F123" s="4">
         <v>2016</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>81380983</v>
+        <v>11205144</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F124" s="4">
         <v>2016</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>44461705</v>
+        <v>81380983</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F125" s="4">
         <v>2016</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>46153572</v>
+        <v>44461705</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F126" s="4">
         <v>2016</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>48094130</v>
+        <v>46153572</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F127" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>79520350</v>
+        <v>48094130</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F128" s="4">
         <v>2015</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>48434917</v>
+        <v>79520350</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F129" s="4">
         <v>2015</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>16714268</v>
+        <v>48434917</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="F130" s="4">
         <v>2015</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>68480503</v>
+        <v>16714268</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F131" s="4">
         <v>2015</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>95752361</v>
+        <v>68480503</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F132" s="4">
         <v>2015</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>53422020</v>
+        <v>95752361</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F133" s="4">
         <v>2015</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>98099421</v>
+        <v>53422020</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="E134" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F134" s="4">
         <v>2015</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>30352564</v>
+        <v>98099421</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C135" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="E135" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F135" s="4">
         <v>2015</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>93094009</v>
+        <v>30352564</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F136" s="4">
         <v>2015</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45511772</v>
+        <v>93094009</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F137" s="4">
         <v>2015</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>77791501</v>
+        <v>45511772</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F138" s="4">
         <v>2015</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>93852873</v>
+        <v>77791501</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F139" s="4">
         <v>2015</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>89621070</v>
+        <v>93852873</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F140" s="4">
         <v>2015</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>38748697</v>
+        <v>89621070</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F141" s="4">
         <v>2015</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>57799152</v>
+        <v>38748697</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="F142" s="4">
         <v>2015</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>83598178</v>
+        <v>57799152</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F143" s="4">
         <v>2015</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>12988042</v>
+        <v>83598178</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F144" s="4">
         <v>2015</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>17666502</v>
+        <v>12988042</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="E145" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F145" s="4">
         <v>2015</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>98088611</v>
+        <v>17666502</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F146" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>10309457</v>
+        <v>98088611</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F147" s="4">
         <v>2014</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>36320335</v>
+        <v>10309457</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F148" s="4">
         <v>2014</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>56820950</v>
+        <v>36320335</v>
       </c>
       <c r="B149" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="E149" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F149" s="4">
         <v>2014</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>53535947</v>
+        <v>56820950</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="F150" s="4">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>85433969</v>
+        <v>53535947</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F151" s="4">
         <v>2015</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>97864229</v>
+        <v>85433969</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="F152" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>94837102</v>
+        <v>97864229</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F153" s="4">
         <v>2013</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>21751534</v>
+        <v>94837102</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F154" s="4">
         <v>2013</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>70185414</v>
+        <v>21751534</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="E155" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F155" s="4">
         <v>2013</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>84914969</v>
+        <v>70185414</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C156" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="E156" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F156" s="4">
         <v>2013</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>69636342</v>
+        <v>84914969</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F157" s="4">
         <v>2013</v>
       </c>
       <c r="G157" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>69636342</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F158" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>64919086</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>64919086</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F158" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>43484960</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="C159" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F159" s="4">
         <v>2014</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>38490559</v>
+        <v>43484960</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F160" s="4">
         <v>2014</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>80971335</v>
+        <v>38490559</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F161" s="4">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>77395217</v>
+        <v>80971335</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F162" s="4">
         <v>2016</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>11654950</v>
+        <v>77395217</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F163" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>88978619</v>
+        <v>11654950</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F164" s="4">
         <v>2015</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>86172634</v>
+        <v>88978619</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="F165" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>92231433</v>
+        <v>86172634</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F166" s="4">
         <v>2014</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>56398863</v>
+        <v>92231433</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F167" s="4">
         <v>2014</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>54555915</v>
+        <v>56398863</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F168" s="4">
         <v>2014</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>75098367</v>
+        <v>54555915</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="E169" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F169" s="4">
         <v>2014</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>24008995</v>
+        <v>75098367</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C170" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="E170" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F170" s="4">
         <v>2014</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>86595104</v>
+        <v>24008995</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F171" s="4">
         <v>2014</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>73564980</v>
+        <v>86595104</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F172" s="4">
         <v>2014</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>30678969</v>
+        <v>73564980</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="F173" s="4">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>62418129</v>
+        <v>30678969</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F174" s="4">
         <v>2018</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>63738981</v>
+        <v>62418129</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F175" s="4">
         <v>2018</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>89229454</v>
+        <v>63738981</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F176" s="4">
         <v>2018</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>22161748</v>
+        <v>89229454</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F177" s="4">
         <v>2018</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>20866513</v>
+        <v>22161748</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="F178" s="4">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>70486261</v>
+        <v>20866513</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F179" s="4">
         <v>2014</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>60099549</v>
+        <v>70486261</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F180" s="4">
         <v>2014</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>89185431</v>
+        <v>60099549</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F181" s="4">
         <v>2014</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>57068101</v>
+        <v>89185431</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F182" s="4">
         <v>2014</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>96683375</v>
+        <v>57068101</v>
       </c>
       <c r="B183" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="E183" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F183" s="4">
         <v>2014</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>32441364</v>
+        <v>96683375</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C184" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D184" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D184" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="E184" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F184" s="4">
         <v>2014</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>36152827</v>
+        <v>32441364</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F185" s="4">
         <v>2014</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>28041699</v>
+        <v>36152827</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F186" s="4">
         <v>2014</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>37513495</v>
+        <v>28041699</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F187" s="4">
         <v>2014</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>31418463</v>
+        <v>37513495</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F188" s="4">
         <v>2014</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>58020044</v>
+        <v>31418463</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>281</v>
+        <v>4</v>
       </c>
       <c r="F189" s="4">
         <v>2014</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>30239912</v>
+        <v>58020044</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F190" s="4">
         <v>2014</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>53944357</v>
+        <v>30239912</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F191" s="4">
         <v>2014</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>56361446</v>
+        <v>53944357</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F192" s="4">
         <v>2014</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>30583617</v>
+        <v>56361446</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="E193" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F193" s="4">
         <v>2014</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>66632400</v>
+        <v>30583617</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C194" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D194" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="E194" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F194" s="4">
         <v>2014</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>46532753</v>
+        <v>66632400</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F195" s="4">
         <v>2014</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>31680999</v>
+        <v>46532753</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F196" s="4">
         <v>2014</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>20622308</v>
+        <v>31680999</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F197" s="4">
         <v>2014</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>96483561</v>
+        <v>20622308</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F198" s="4">
         <v>2014</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>29822414</v>
+        <v>96483561</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F199" s="4">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>79052158</v>
+        <v>29822414</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F200" s="4">
         <v>2016</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>93838226</v>
+        <v>79052158</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F201" s="4">
         <v>2016</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>90293201</v>
+        <v>93838226</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F202" s="4">
         <v>2016</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>46065985</v>
+        <v>90293201</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F203" s="4">
         <v>2016</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>58382301</v>
+        <v>46065985</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F204" s="4">
         <v>2016</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>21442270</v>
+        <v>58382301</v>
       </c>
       <c r="B205" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="E205" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F205" s="4">
         <v>2016</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>61909731</v>
+        <v>21442270</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C206" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D206" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D206" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="E206" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F206" s="4">
         <v>2016</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>83808554</v>
+        <v>61909731</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F207" s="4">
         <v>2016</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>94772661</v>
+        <v>83808554</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F208" s="4">
         <v>2016</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>99441867</v>
+        <v>94772661</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F209" s="4">
         <v>2016</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>42179040</v>
+        <v>99441867</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F210" s="4">
         <v>2016</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>68989262</v>
+        <v>42179040</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F211" s="4">
         <v>2016</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>56192876</v>
+        <v>68989262</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F212" s="4">
         <v>2016</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>28214251</v>
+        <v>56192876</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F213" s="4">
         <v>2016</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>43658124</v>
+        <v>28214251</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F214" s="4">
         <v>2016</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>73649204</v>
+        <v>43658124</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F215" s="4">
         <v>2016</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>71910417</v>
+        <v>73649204</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F216" s="4">
         <v>2016</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>33786556</v>
+        <v>71910417</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="F217" s="4">
         <v>2016</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>63901121</v>
+        <v>33786556</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F218" s="4">
         <v>2016</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>90077954</v>
+        <v>63901121</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F219" s="4">
         <v>2016</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>74851440</v>
+        <v>90077954</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="F220" s="4">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>56394266</v>
+        <v>74851440</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F221" s="4">
         <v>2013</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>330</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>85616382</v>
+        <v>56394266</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F222" s="4">
         <v>2013</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>16287688</v>
+        <v>85616382</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F223" s="4">
         <v>2013</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>32016923</v>
+        <v>16287688</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="E224" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F224" s="4">
         <v>2013</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>26352526</v>
+        <v>32016923</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F225" s="4">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>35596743</v>
+        <v>26352526</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F226" s="4">
         <v>2018</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>22073028</v>
+        <v>35596743</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F227" s="4">
         <v>2018</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>45837677</v>
+        <v>22073028</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F228" s="4">
         <v>2018</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>82050200</v>
+        <v>45837677</v>
       </c>
       <c r="B229" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="E229" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F229" s="4">
         <v>2018</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>30741184</v>
+        <v>82050200</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C230" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D230" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D230" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="E230" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F230" s="4">
         <v>2018</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>23596356</v>
+        <v>30741184</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F231" s="4">
         <v>2018</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>45924128</v>
+        <v>23596356</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="F232" s="4">
         <v>2018</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>79964420</v>
+        <v>45924128</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F233" s="4">
         <v>2018</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>78714558</v>
+        <v>79964420</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F234" s="4">
         <v>2018</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>78432514</v>
+        <v>78714558</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F235" s="4">
         <v>2018</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>95051463</v>
+        <v>78432514</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="F236" s="4">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>21993803</v>
+        <v>95051463</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F237" s="4">
         <v>2014</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>32833085</v>
+        <v>21993803</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F238" s="4">
         <v>2014</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>52313408</v>
+        <v>32833085</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F239" s="4">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>85418104</v>
+        <v>52313408</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F240" s="4">
         <v>2017</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>61121361</v>
+        <v>85418104</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F241" s="4">
         <v>2017</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>75616873</v>
+        <v>61121361</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F242" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>43432223</v>
+        <v>75616873</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F243" s="4">
         <v>2018</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>81225118</v>
+        <v>43432223</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="F244" s="4">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>82443575</v>
+        <v>81225118</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F245" s="4">
         <v>2013</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>43116652</v>
+        <v>82443575</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F246" s="4">
         <v>2013</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>90098528</v>
+        <v>43116652</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F247" s="4">
         <v>2013</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>51446532</v>
+        <v>90098528</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F248" s="4">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>82939919</v>
+        <v>51446532</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F249" s="4">
         <v>2017</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>62600519</v>
+        <v>82939919</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F250" s="4">
         <v>2017</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>62779781</v>
+        <v>62600519</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F251" s="4">
         <v>2017</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>42295258</v>
+        <v>62779781</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D252" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="E252" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F252" s="4">
         <v>2017</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>90007595</v>
+        <v>42295258</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C253" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D253" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D253" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="E253" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F253" s="4">
         <v>2017</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>49477450</v>
+        <v>90007595</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F254" s="4">
         <v>2017</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>72121311</v>
+        <v>49477450</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F255" s="4">
         <v>2017</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>52336554</v>
+        <v>72121311</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F256" s="4">
         <v>2017</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>85749059</v>
+        <v>52336554</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F257" s="4">
         <v>2017</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>45437850</v>
+        <v>85749059</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F258" s="4">
         <v>2017</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>10406007</v>
+        <v>45437850</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F259" s="4">
         <v>2017</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>14460805</v>
+        <v>10406007</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="F260" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>41275354</v>
+        <v>14460805</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F261" s="4">
         <v>2015</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>78707469</v>
+        <v>41275354</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F262" s="4">
         <v>2015</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>15096631</v>
+        <v>78707469</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>397</v>
+        <v>4</v>
       </c>
       <c r="F263" s="4">
         <v>2015</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>398</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>37999576</v>
+        <v>15096631</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F264" s="4">
         <v>2015</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>52876136</v>
+        <v>37999576</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F265" s="4">
         <v>2015</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>59039468</v>
+        <v>52876136</v>
       </c>
       <c r="B266" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D266" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="E266" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F266" s="4">
         <v>2015</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>89597745</v>
+        <v>59039468</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>10</v>
+        <v>391</v>
       </c>
       <c r="F267" s="4">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>51153718</v>
+        <v>89597745</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F268" s="4">
         <v>2018</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>79807669</v>
+        <v>51153718</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F269" s="4">
         <v>2018</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>74610514</v>
+        <v>79807669</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F270" s="4">
         <v>2018</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>68180939</v>
+        <v>74610514</v>
       </c>
       <c r="B271" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="E271" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F271" s="4">
         <v>2018</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>78599567</v>
+        <v>68180939</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C272" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D272" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="E272" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F272" s="4">
         <v>2018</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>71662980</v>
+        <v>78599567</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F273" s="4">
         <v>2018</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>55340195</v>
+        <v>71662980</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F274" s="4">
         <v>2018</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>39136166</v>
+        <v>55340195</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="F275" s="4">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>31648996</v>
+        <v>39136166</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F276" s="4">
         <v>2015</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>21813714</v>
+        <v>31648996</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F277" s="4">
         <v>2015</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>21813714</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F278" s="4">
+        <v>2015</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/PP_RRSR_IDspreadsheet.xlsx
+++ b/PP_RRSR_IDspreadsheet.xlsx
@@ -1,28 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20176208\surfdrive\Documents\_teaching\_2020-21_Q1_HTI-Research-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s167293\Documents\Jaar 5\Q1\HTI research project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795B407-108B-4C1E-BC57-711FB45B4E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D60A3F4003146017148353EE06D63256796F0857" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="429">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>hyp_quote</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>questionnaire_quote</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST TITLE
+</t>
+  </si>
+  <si>
+    <t>TEST HYPOTHESIS QUOTE</t>
+  </si>
+  <si>
+    <t>TEST DOI</t>
+  </si>
+  <si>
+    <t>TEST STATISTICAL HYPOTHESIS</t>
+  </si>
+  <si>
+    <t>TEST YEAR</t>
+  </si>
+  <si>
+    <t>TEST JOURNAL</t>
   </si>
   <si>
     <t>Mimicry of ingroup and outgroup emotional expressions</t>
@@ -1298,48 +1346,26 @@
     <t>Psychonomic Bulletin and Review</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST TITLE
-</t>
-  </si>
-  <si>
-    <t>TEST HYPOTHESIS QUOTE</t>
-  </si>
-  <si>
-    <t>TEST DOI</t>
-  </si>
-  <si>
-    <t>TEST STATISTICAL HYPOTHESIS</t>
-  </si>
-  <si>
-    <t>TEST YEAR</t>
-  </si>
-  <si>
-    <t>TEST JOURNAL</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>hyp_quote</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>questionnaire_quote</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>journal</t>
+    <t>Revisiting Tversky's diagnosticity principle</t>
+  </si>
+  <si>
+    <t>One of the context-dependent effects Tversky describes is the diagnosticity principle. The diagnosticity principle determines which features are used to cluster multiple objects into subgroups. Perceived similarity between items within clusters is expected to increase, while similarity between items in different clusters decreases.</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2014.00875</t>
+  </si>
+  <si>
+    <t>Based on the results of the categorization task, participants in condition 1 were expected to be more likely to indicate the neutral face (a) being similar to the frowning face (b) as compared to participants in condition 2 (...) the diagnosticity effect was calculated by subtracting the choice proportion in condition 2 from the choice proportion in condition 1, resulting in a diagnosticity effect of $$$%, χ2(1, N =254) = $$$, p = $$$, Cramer’s V = $$$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frontiers in Psychology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1371,6 +1397,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF100E44"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1398,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1413,6 +1457,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,6407 +1683,6431 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>422</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.45">
       <c r="A2" s="1">
         <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>414</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.45">
       <c r="A3" s="2">
         <v>34216047</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>2016</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.45">
       <c r="A4" s="2">
         <v>41576289</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4">
         <v>2016</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45">
       <c r="A5" s="2">
         <v>14312202</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4">
         <v>2016</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45">
       <c r="A6" s="2">
         <v>15926494</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>2017</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.45">
       <c r="A7" s="2">
         <v>40015614</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <v>2017</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.45">
       <c r="A8" s="2">
         <v>74028678</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
         <v>2017</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.45">
       <c r="A9" s="2">
         <v>35362984</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4">
         <v>2017</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.45">
       <c r="A10" s="2">
         <v>75553782</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4">
         <v>2017</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.45">
       <c r="A11" s="2">
         <v>45366518</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F11" s="4">
         <v>2018</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.45">
       <c r="A12" s="2">
         <v>29545833</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F12" s="4">
         <v>2018</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.45">
       <c r="A13" s="2">
         <v>99187785</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F13" s="4">
         <v>2018</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.45">
       <c r="A14" s="2">
         <v>61618317</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F14" s="4">
         <v>2018</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.45">
       <c r="A15" s="2">
         <v>83407042</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
         <v>2018</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.45">
       <c r="A16" s="2">
         <v>91376109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4">
         <v>2018</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.45">
       <c r="A17" s="2">
         <v>69776508</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4">
         <v>2018</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.45">
       <c r="A18" s="2">
         <v>60635819</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F18" s="4">
         <v>2018</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.45">
       <c r="A19" s="2">
         <v>89270001</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4">
         <v>2017</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.45">
       <c r="A20" s="2">
         <v>77295838</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4">
         <v>2017</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.45">
       <c r="A21" s="2">
         <v>75903843</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4">
         <v>2017</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.45">
       <c r="A22" s="2">
         <v>60631618</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4">
         <v>2017</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.45">
       <c r="A23" s="2">
         <v>57371585</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4">
         <v>2017</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.45">
       <c r="A24" s="2">
         <v>41294073</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F24" s="4">
         <v>2018</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.45">
       <c r="A25" s="2">
         <v>82829717</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4">
         <v>2018</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.45">
       <c r="A26" s="2">
         <v>19706661</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F26" s="4">
         <v>2017</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.45">
       <c r="A27" s="2">
         <v>41672048</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F27" s="4">
         <v>2017</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.45">
       <c r="A28" s="2">
         <v>85134423</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F28" s="4">
         <v>2017</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.45">
       <c r="A29" s="2">
         <v>56471204</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F29" s="4">
         <v>2017</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.45">
       <c r="A30" s="2">
         <v>91085989</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F30" s="4">
         <v>2017</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.45">
       <c r="A31" s="2">
         <v>31738064</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F31" s="4">
         <v>2017</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.45">
       <c r="A32" s="2">
         <v>21464216</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F32" s="4">
         <v>2017</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.45">
       <c r="A33" s="2">
         <v>51201022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4">
         <v>2017</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.45">
       <c r="A34" s="2">
         <v>82965421</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F34" s="4">
         <v>2017</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.45">
       <c r="A35" s="2">
         <v>56040239</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F35" s="4">
         <v>2017</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.45">
       <c r="A36" s="2">
         <v>88510365</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F36" s="4">
         <v>2017</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.45">
       <c r="A37" s="2">
         <v>86187444</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F37" s="4">
         <v>2017</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.45">
       <c r="A38" s="2">
         <v>41247578</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F38" s="4">
         <v>2017</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.45">
       <c r="A39" s="2">
         <v>15335135</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F39" s="4">
         <v>2017</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" customHeight="1">
       <c r="A40" s="2">
         <v>90082915</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4">
         <v>2017</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="2">
         <v>76762750</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F41" s="4">
         <v>2017</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1">
       <c r="A42" s="2">
         <v>63346271</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F42" s="4">
         <v>2017</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1">
       <c r="A43" s="2">
         <v>63209803</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F43" s="4">
         <v>2017</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1">
       <c r="A44" s="2">
         <v>73601479</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F44" s="4">
         <v>2017</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.45">
       <c r="A45" s="2">
         <v>86692109</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F45" s="4">
         <v>2018</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.45">
       <c r="A46" s="2">
         <v>41638625</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F46" s="4">
         <v>2018</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.45">
       <c r="A47" s="2">
         <v>67907740</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F47" s="4">
         <v>2018</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.45">
       <c r="A48" s="2">
         <v>83166278</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F48" s="4">
         <v>2018</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.45">
       <c r="A49" s="2">
         <v>44412046</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F49" s="4">
         <v>2017</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.45">
       <c r="A50" s="2">
         <v>85857289</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F50" s="4">
         <v>2017</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.45">
       <c r="A51" s="2">
         <v>79408767</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F51" s="4">
         <v>2017</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.45">
       <c r="A52" s="2">
         <v>64314769</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F52" s="4">
         <v>2017</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.45">
       <c r="A53" s="2">
         <v>51317424</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F53" s="4">
         <v>2017</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.45">
       <c r="A54" s="2">
         <v>64740373</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F54" s="4">
         <v>2017</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.45">
       <c r="A55" s="2">
         <v>98401326</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F55" s="4">
         <v>2017</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.45">
       <c r="A56" s="2">
         <v>62036421</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F56" s="4">
         <v>2017</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.45">
       <c r="A57" s="2">
         <v>32998084</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F57" s="4">
         <v>2017</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.45">
       <c r="A58" s="2">
         <v>48594716</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F58" s="4">
         <v>2017</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.45">
       <c r="A59" s="2">
         <v>29264161</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F59" s="4">
         <v>2017</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.45">
       <c r="A60" s="2">
         <v>33862339</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F60" s="4">
         <v>2017</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.45">
       <c r="A61" s="2">
         <v>14961146</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F61" s="4">
         <v>2017</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.45">
       <c r="A62" s="2">
         <v>96078450</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F62" s="4">
         <v>2018</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.45">
       <c r="A63" s="2">
         <v>47465456</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F63" s="4">
         <v>2018</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.45">
       <c r="A64" s="2">
         <v>55403086</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F64" s="4">
         <v>2018</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.45">
       <c r="A65" s="2">
         <v>22822147</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F65" s="4">
         <v>2018</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" customHeight="1">
       <c r="A66" s="2">
         <v>50471704</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F66" s="4">
         <v>2017</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19.5" customHeight="1">
       <c r="A67" s="2">
         <v>62890900</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F67" s="4">
         <v>2017</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19.5" customHeight="1">
       <c r="A68" s="2">
         <v>26577220</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F68" s="4">
         <v>2017</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="25.5" customHeight="1">
       <c r="A69" s="2">
         <v>63208023</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F69" s="4">
         <v>2017</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="19.5" customHeight="1">
       <c r="A70" s="2">
         <v>52979733</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F70" s="4">
         <v>2017</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.45">
       <c r="A71" s="2">
         <v>94528317</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F71" s="4">
         <v>2017</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.45">
       <c r="A72" s="2">
         <v>32954649</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F72" s="4">
         <v>2017</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.45">
       <c r="A73" s="2">
         <v>75687157</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F73" s="4">
         <v>2017</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.45">
       <c r="A74" s="2">
         <v>73200578</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F74" s="4">
         <v>2017</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14.45">
       <c r="A75" s="2">
         <v>28664826</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F75" s="4">
         <v>2017</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.45">
       <c r="A76" s="2">
         <v>88133098</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F76" s="4">
         <v>2017</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14.45">
       <c r="A77" s="2">
         <v>37926518</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F77" s="4">
         <v>2017</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.45">
       <c r="A78" s="2">
         <v>89789803</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F78" s="4">
         <v>2017</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.45">
       <c r="A79" s="2">
         <v>12293723</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F79" s="4">
         <v>2018</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.45">
       <c r="A80" s="2">
         <v>79872597</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F80" s="4">
         <v>2018</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.45">
       <c r="A81" s="2">
         <v>25973191</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F81" s="4">
         <v>2018</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.45">
       <c r="A82" s="2">
         <v>17567737</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F82" s="4">
         <v>2018</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.45">
       <c r="A83" s="2">
         <v>25781564</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F83" s="4">
         <v>2018</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.45">
       <c r="A84" s="2">
         <v>74832042</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F84" s="4">
         <v>2016</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.45">
       <c r="A85" s="2">
         <v>59067286</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F85" s="4">
         <v>2016</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.45">
       <c r="A86" s="2">
         <v>60840024</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F86" s="4">
         <v>2016</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.45">
       <c r="A87" s="2">
         <v>54012179</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F87" s="4">
         <v>2016</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.45">
       <c r="A88" s="2">
         <v>44183526</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F88" s="4">
         <v>2016</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.45">
       <c r="A89" s="2">
         <v>83715589</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F89" s="4">
         <v>2016</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.45">
       <c r="A90" s="2">
         <v>46540188</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F90" s="4">
         <v>2016</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14.45">
       <c r="A91" s="2">
         <v>23202663</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F91" s="4">
         <v>2016</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.45">
       <c r="A92" s="2">
         <v>65124289</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F92" s="4">
         <v>2016</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.45">
       <c r="A93" s="2">
         <v>34890007</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F93" s="4">
         <v>2016</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.45">
       <c r="A94" s="2">
         <v>84953314</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F94" s="4">
         <v>2018</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="14.45">
       <c r="A95" s="2">
         <v>21377527</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F95" s="4">
         <v>2017</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="14.45">
       <c r="A96" s="2">
         <v>21362730</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F96" s="4">
         <v>2017</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.45">
       <c r="A97" s="2">
         <v>83162147</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F97" s="4">
         <v>2017</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20.25" customHeight="1">
       <c r="A98" s="2">
         <v>40242820</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F98" s="4">
         <v>2017</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="19.5" customHeight="1">
       <c r="A99" s="2">
         <v>64090661</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F99" s="4">
         <v>2017</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="19.5" customHeight="1">
       <c r="A100" s="2">
         <v>49024150</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F100" s="4">
         <v>2017</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.45">
       <c r="A101" s="2">
         <v>45345128</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F101" s="4">
         <v>2015</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.45">
       <c r="A102" s="2">
         <v>37777690</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F102" s="4">
         <v>2015</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14.45">
       <c r="A103" s="2">
         <v>23400789</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F103" s="4">
         <v>2015</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="14.45">
       <c r="A104" s="2">
         <v>93103432</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F104" s="4">
         <v>2015</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="14.45">
       <c r="A105" s="2">
         <v>82786031</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F105" s="4">
         <v>2018</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="14.45">
       <c r="A106" s="2">
         <v>50345472</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F106" s="4">
         <v>2018</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="14.45">
       <c r="A107" s="2">
         <v>77334592</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F107" s="4">
         <v>2018</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="14.45">
       <c r="A108" s="2">
         <v>23586093</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="4">
         <v>2018</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="14.45">
       <c r="A109" s="2">
         <v>85837068</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="4">
         <v>2018</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="14.45">
       <c r="A110" s="2">
         <v>50736627</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="4">
         <v>2018</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" customHeight="1">
       <c r="A111" s="2">
         <v>69112736</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F111" s="4">
         <v>2017</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="21" customHeight="1">
       <c r="A112" s="2">
         <v>99665736</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F112" s="4">
         <v>2017</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="27" customHeight="1">
       <c r="A113" s="2">
         <v>95230934</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F113" s="4">
         <v>2017</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="22.5" customHeight="1">
       <c r="A114" s="2">
         <v>63898854</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F114" s="4">
         <v>2017</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="23.25" customHeight="1">
       <c r="A115" s="2">
         <v>50267498</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F115" s="4">
         <v>2017</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14.45">
       <c r="A116" s="2">
         <v>25105070</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F116" s="4">
         <v>2016</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="14.45">
       <c r="A117" s="2">
         <v>21095459</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F117" s="4">
         <v>2016</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14.45">
       <c r="A118" s="2">
         <v>67885282</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F118" s="4">
         <v>2016</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="14.45">
       <c r="A119" s="2">
         <v>69446753</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F119" s="4">
         <v>2016</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="14.45">
       <c r="A120" s="2">
         <v>67719346</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F120" s="4">
         <v>2016</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.45">
       <c r="A121" s="2">
         <v>78165036</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F121" s="4">
         <v>2016</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.45">
       <c r="A122" s="2">
         <v>19158365</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F122" s="4">
         <v>2016</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.45">
       <c r="A123" s="2">
         <v>79177548</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F123" s="4">
         <v>2016</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="14.45">
       <c r="A124" s="2">
         <v>11205144</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F124" s="4">
         <v>2016</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="14.45">
       <c r="A125" s="2">
         <v>81380983</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F125" s="4">
         <v>2016</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="14.45">
       <c r="A126" s="2">
         <v>44461705</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F126" s="4">
         <v>2016</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="14.45">
       <c r="A127" s="2">
         <v>46153572</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F127" s="4">
         <v>2016</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.45">
       <c r="A128" s="2">
         <v>48094130</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F128" s="4">
         <v>2015</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.45">
       <c r="A129" s="2">
         <v>79520350</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F129" s="4">
         <v>2015</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.45">
       <c r="A130" s="2">
         <v>48434917</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F130" s="4">
         <v>2015</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="14.45">
       <c r="A131" s="2">
         <v>16714268</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F131" s="4">
         <v>2015</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="14.45">
       <c r="A132" s="2">
         <v>68480503</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F132" s="4">
         <v>2015</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.45">
       <c r="A133" s="2">
         <v>95752361</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F133" s="4">
         <v>2015</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14.45">
       <c r="A134" s="2">
         <v>53422020</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F134" s="4">
         <v>2015</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="14.45">
       <c r="A135" s="2">
         <v>98099421</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F135" s="4">
         <v>2015</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="14.45">
       <c r="A136" s="2">
         <v>30352564</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F136" s="4">
         <v>2015</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.45">
       <c r="A137" s="2">
         <v>93094009</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F137" s="4">
         <v>2015</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.45">
       <c r="A138" s="2">
         <v>45511772</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F138" s="4">
         <v>2015</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.45">
       <c r="A139" s="2">
         <v>77791501</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F139" s="4">
         <v>2015</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.45">
       <c r="A140" s="2">
         <v>93852873</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F140" s="4">
         <v>2015</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.45">
       <c r="A141" s="2">
         <v>89621070</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F141" s="4">
         <v>2015</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.45">
       <c r="A142" s="2">
         <v>38748697</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F142" s="4">
         <v>2015</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.45">
       <c r="A143" s="2">
         <v>57799152</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F143" s="4">
         <v>2015</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.45">
       <c r="A144" s="2">
         <v>83598178</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F144" s="4">
         <v>2015</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.45">
       <c r="A145" s="2">
         <v>12988042</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F145" s="4">
         <v>2015</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14.45">
       <c r="A146" s="2">
         <v>17666502</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F146" s="4">
         <v>2015</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14.45">
       <c r="A147" s="2">
         <v>98088611</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F147" s="4">
         <v>2014</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="14.45">
       <c r="A148" s="2">
         <v>10309457</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F148" s="4">
         <v>2014</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14.45">
       <c r="A149" s="2">
         <v>36320335</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F149" s="4">
         <v>2014</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="14.45">
       <c r="A150" s="2">
         <v>56820950</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F150" s="4">
         <v>2014</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="14.45">
       <c r="A151" s="2">
         <v>53535947</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F151" s="4">
         <v>2015</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14.45">
       <c r="A152" s="2">
         <v>85433969</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F152" s="4">
         <v>2015</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="14.45">
       <c r="A153" s="2">
         <v>97864229</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F153" s="4">
         <v>2013</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="14.45">
       <c r="A154" s="2">
         <v>94837102</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F154" s="4">
         <v>2013</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="14.45">
       <c r="A155" s="2">
         <v>21751534</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F155" s="4">
         <v>2013</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="14.45">
       <c r="A156" s="2">
         <v>70185414</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F156" s="4">
         <v>2013</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="14.45">
       <c r="A157" s="2">
         <v>84914969</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F157" s="4">
         <v>2013</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="14.45">
       <c r="A158" s="2">
         <v>69636342</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F158" s="4">
         <v>2013</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="22.5" customHeight="1">
       <c r="A159" s="2">
         <v>64919086</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F159" s="4">
         <v>2014</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="21" customHeight="1">
       <c r="A160" s="2">
         <v>43484960</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F160" s="4">
         <v>2014</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="25.5" customHeight="1">
       <c r="A161" s="2">
         <v>38490559</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F161" s="4">
         <v>2014</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="14.45">
       <c r="A162" s="2">
         <v>80971335</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F162" s="4">
         <v>2016</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="14.45">
       <c r="A163" s="2">
         <v>77395217</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F163" s="4">
         <v>2016</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="14.45">
       <c r="A164" s="2">
         <v>11654950</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F164" s="4">
         <v>2015</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="14.45">
       <c r="A165" s="2">
         <v>88978619</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F165" s="4">
         <v>2015</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="14.45">
       <c r="A166" s="2">
         <v>86172634</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F166" s="4">
         <v>2014</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="14.45">
       <c r="A167" s="2">
         <v>92231433</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F167" s="4">
         <v>2014</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="14.45">
       <c r="A168" s="2">
         <v>56398863</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F168" s="4">
         <v>2014</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="14.45">
       <c r="A169" s="2">
         <v>54555915</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F169" s="4">
         <v>2014</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="14.45">
       <c r="A170" s="2">
         <v>75098367</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F170" s="4">
         <v>2014</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="14.45">
       <c r="A171" s="2">
         <v>24008995</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F171" s="4">
         <v>2014</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="14.45">
       <c r="A172" s="2">
         <v>86595104</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F172" s="4">
         <v>2014</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="14.45">
       <c r="A173" s="2">
         <v>73564980</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F173" s="4">
         <v>2014</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="14.45">
       <c r="A174" s="2">
         <v>30678969</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F174" s="4">
         <v>2018</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="14.45">
       <c r="A175" s="2">
         <v>62418129</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F175" s="4">
         <v>2018</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="14.45">
       <c r="A176" s="2">
         <v>63738981</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F176" s="4">
         <v>2018</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="14.45">
       <c r="A177" s="2">
         <v>89229454</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F177" s="4">
         <v>2018</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="14.45">
       <c r="A178" s="2">
         <v>22161748</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F178" s="4">
         <v>2018</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="14.45">
       <c r="A179" s="2">
         <v>20866513</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F179" s="4">
         <v>2014</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="14.45">
       <c r="A180" s="2">
         <v>70486261</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F180" s="4">
         <v>2014</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="14.45">
       <c r="A181" s="2">
         <v>60099549</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F181" s="4">
         <v>2014</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="14.45">
       <c r="A182" s="2">
         <v>89185431</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F182" s="4">
         <v>2014</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="14.45">
       <c r="A183" s="2">
         <v>57068101</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F183" s="4">
         <v>2014</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="14.45">
       <c r="A184" s="2">
         <v>96683375</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F184" s="4">
         <v>2014</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="14.45">
       <c r="A185" s="2">
         <v>32441364</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F185" s="4">
         <v>2014</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="14.45">
       <c r="A186" s="2">
         <v>36152827</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F186" s="4">
         <v>2014</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="14.45">
       <c r="A187" s="2">
         <v>28041699</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F187" s="4">
         <v>2014</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="14.45">
       <c r="A188" s="2">
         <v>37513495</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F188" s="4">
         <v>2014</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="14.45">
       <c r="A189" s="2">
         <v>31418463</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F189" s="4">
         <v>2014</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="14.45">
       <c r="A190" s="2">
         <v>58020044</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F190" s="4">
         <v>2014</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="14.45">
       <c r="A191" s="2">
         <v>30239912</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F191" s="4">
         <v>2014</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="14.45">
       <c r="A192" s="2">
         <v>53944357</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F192" s="4">
         <v>2014</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="14.45">
       <c r="A193" s="2">
         <v>56361446</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F193" s="4">
         <v>2014</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="14.45">
       <c r="A194" s="2">
         <v>30583617</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F194" s="4">
         <v>2014</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="14.45">
       <c r="A195" s="2">
         <v>66632400</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F195" s="4">
         <v>2014</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="14.45">
       <c r="A196" s="2">
         <v>46532753</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F196" s="4">
         <v>2014</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="14.45">
       <c r="A197" s="2">
         <v>31680999</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F197" s="4">
         <v>2014</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="14.45">
       <c r="A198" s="2">
         <v>20622308</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F198" s="4">
         <v>2014</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="14.45">
       <c r="A199" s="2">
         <v>96483561</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F199" s="4">
         <v>2014</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="14.45">
       <c r="A200" s="2">
         <v>29822414</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F200" s="4">
         <v>2016</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="14.45">
       <c r="A201" s="2">
         <v>79052158</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F201" s="4">
         <v>2016</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="14.45">
       <c r="A202" s="2">
         <v>93838226</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F202" s="4">
         <v>2016</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="14.45">
       <c r="A203" s="2">
         <v>90293201</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F203" s="4">
         <v>2016</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="14.45">
       <c r="A204" s="2">
         <v>46065985</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F204" s="4">
         <v>2016</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="14.45">
       <c r="A205" s="2">
         <v>58382301</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F205" s="4">
         <v>2016</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="14.45">
       <c r="A206" s="2">
         <v>21442270</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F206" s="4">
         <v>2016</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="14.45">
       <c r="A207" s="2">
         <v>61909731</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F207" s="4">
         <v>2016</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="14.45">
       <c r="A208" s="2">
         <v>83808554</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F208" s="4">
         <v>2016</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="14.45">
       <c r="A209" s="2">
         <v>94772661</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F209" s="4">
         <v>2016</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="14.45">
       <c r="A210" s="2">
         <v>99441867</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F210" s="4">
         <v>2016</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="14.45">
       <c r="A211" s="2">
         <v>42179040</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F211" s="4">
         <v>2016</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="14.45">
       <c r="A212" s="2">
         <v>68989262</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F212" s="4">
         <v>2016</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="14.45">
       <c r="A213" s="2">
         <v>56192876</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F213" s="4">
         <v>2016</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="14.45">
       <c r="A214" s="2">
         <v>28214251</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E214" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F214" s="4">
         <v>2016</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="14.45">
       <c r="A215" s="2">
         <v>43658124</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F215" s="4">
         <v>2016</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="14.45">
       <c r="A216" s="2">
         <v>73649204</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F216" s="4">
         <v>2016</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="14.45">
       <c r="A217" s="2">
         <v>71910417</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F217" s="4">
         <v>2016</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="23.25" customHeight="1">
       <c r="A218" s="2">
         <v>33786556</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F218" s="4">
         <v>2016</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="18.75" customHeight="1">
       <c r="A219" s="2">
         <v>63901121</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F219" s="4">
         <v>2016</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="26.25" customHeight="1">
       <c r="A220" s="2">
         <v>90077954</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F220" s="4">
         <v>2016</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="14.45">
       <c r="A221" s="2">
         <v>74851440</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F221" s="4">
         <v>2013</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="14.45">
       <c r="A222" s="2">
         <v>56394266</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F222" s="4">
         <v>2013</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="14.45">
       <c r="A223" s="2">
         <v>85616382</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F223" s="4">
         <v>2013</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="14.45">
       <c r="A224" s="2">
         <v>16287688</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F224" s="4">
         <v>2013</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="14.45">
       <c r="A225" s="2">
         <v>32016923</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F225" s="4">
         <v>2013</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="14.45">
       <c r="A226" s="2">
         <v>26352526</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F226" s="4">
         <v>2018</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="14.45">
       <c r="A227" s="2">
         <v>35596743</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F227" s="4">
         <v>2018</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="14.45">
       <c r="A228" s="2">
         <v>22073028</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F228" s="4">
         <v>2018</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="14.45">
       <c r="A229" s="2">
         <v>45837677</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F229" s="4">
         <v>2018</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="14.45">
       <c r="A230" s="2">
         <v>82050200</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F230" s="4">
         <v>2018</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="14.45">
       <c r="A231" s="2">
         <v>30741184</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F231" s="4">
         <v>2018</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="14.45">
       <c r="A232" s="2">
         <v>23596356</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F232" s="4">
         <v>2018</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="14.45">
       <c r="A233" s="2">
         <v>45924128</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F233" s="4">
         <v>2018</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="14.45">
       <c r="A234" s="2">
         <v>79964420</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F234" s="4">
         <v>2018</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="14.45">
       <c r="A235" s="2">
         <v>78714558</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F235" s="4">
         <v>2018</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="14.45">
       <c r="A236" s="2">
         <v>78432514</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F236" s="4">
         <v>2018</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="14.45">
       <c r="A237" s="2">
         <v>95051463</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F237" s="4">
         <v>2014</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="14.45">
       <c r="A238" s="2">
         <v>21993803</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F238" s="4">
         <v>2014</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="14.45">
       <c r="A239" s="2">
         <v>32833085</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F239" s="4">
         <v>2014</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="14.45">
       <c r="A240" s="2">
         <v>52313408</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F240" s="4">
         <v>2017</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="14.45">
       <c r="A241" s="2">
         <v>85418104</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F241" s="4">
         <v>2017</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="14.45">
       <c r="A242" s="2">
         <v>61121361</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F242" s="4">
         <v>2017</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="14.45">
       <c r="A243" s="2">
         <v>75616873</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F243" s="4">
         <v>2018</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="14.45">
       <c r="A244" s="2">
         <v>43432223</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F244" s="4">
         <v>2018</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="14.45">
       <c r="A245" s="2">
         <v>81225118</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F245" s="4">
         <v>2013</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="14.45">
       <c r="A246" s="2">
         <v>82443575</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F246" s="4">
         <v>2013</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="14.45">
       <c r="A247" s="2">
         <v>43116652</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F247" s="4">
         <v>2013</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="14.45">
       <c r="A248" s="2">
         <v>90098528</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F248" s="4">
         <v>2013</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="14.45">
       <c r="A249" s="2">
         <v>51446532</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F249" s="4">
         <v>2017</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="14.45">
       <c r="A250" s="2">
         <v>82939919</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F250" s="4">
         <v>2017</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="14.45">
       <c r="A251" s="2">
         <v>62600519</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F251" s="4">
         <v>2017</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="14.45">
       <c r="A252" s="2">
         <v>62779781</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F252" s="4">
         <v>2017</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="14.45">
       <c r="A253" s="2">
         <v>42295258</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F253" s="4">
         <v>2017</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="14.45">
       <c r="A254" s="2">
         <v>90007595</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F254" s="4">
         <v>2017</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="14.45">
       <c r="A255" s="2">
         <v>49477450</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F255" s="4">
         <v>2017</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="14.45">
       <c r="A256" s="2">
         <v>72121311</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F256" s="4">
         <v>2017</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="14.45">
       <c r="A257" s="2">
         <v>52336554</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F257" s="4">
         <v>2017</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="14.45">
       <c r="A258" s="2">
         <v>85749059</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F258" s="4">
         <v>2017</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="14.45">
       <c r="A259" s="2">
         <v>45437850</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F259" s="4">
         <v>2017</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="14.45">
       <c r="A260" s="2">
         <v>10406007</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F260" s="4">
         <v>2017</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="14.45">
       <c r="A261" s="2">
         <v>14460805</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F261" s="4">
         <v>2015</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="14.45">
       <c r="A262" s="2">
         <v>41275354</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F262" s="4">
         <v>2015</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="14.45">
       <c r="A263" s="2">
         <v>78707469</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F263" s="4">
         <v>2015</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="14.45">
       <c r="A264" s="2">
         <v>15096631</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F264" s="4">
         <v>2015</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="14.45">
       <c r="A265" s="2">
         <v>37999576</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F265" s="4">
         <v>2015</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="14.45">
       <c r="A266" s="2">
         <v>52876136</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F266" s="4">
         <v>2015</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="14.45">
       <c r="A267" s="2">
         <v>59039468</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F267" s="4">
         <v>2015</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="14.45">
       <c r="A268" s="2">
         <v>89597745</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F268" s="4">
         <v>2018</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="14.45">
       <c r="A269" s="2">
         <v>51153718</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F269" s="4">
         <v>2018</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="14.45">
       <c r="A270" s="2">
         <v>79807669</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F270" s="4">
         <v>2018</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="14.45">
       <c r="A271" s="2">
         <v>74610514</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F271" s="4">
         <v>2018</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="14.45">
       <c r="A272" s="2">
         <v>68180939</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F272" s="4">
         <v>2018</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="14.45">
       <c r="A273" s="2">
         <v>78599567</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F273" s="4">
         <v>2018</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="14.45">
       <c r="A274" s="2">
         <v>71662980</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F274" s="4">
         <v>2018</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="14.45">
       <c r="A275" s="2">
         <v>55340195</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F275" s="4">
         <v>2018</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="14.45">
       <c r="A276" s="2">
         <v>39136166</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F276" s="4">
         <v>2015</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="14.45">
       <c r="A277" s="2">
         <v>31648996</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F277" s="4">
         <v>2015</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="14.45">
       <c r="A278" s="2">
         <v>21813714</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F278" s="4">
         <v>2015</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>411</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A279" s="11">
+        <v>2222</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F279" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PP_RRSR_IDspreadsheet.xlsx
+++ b/PP_RRSR_IDspreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s162163\Documents\HTI research project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC602422-83E8-4992-BF80-545EC1B8E445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49F40B-7659-4DDB-A3CF-B8A72400AFB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>10.1080/23743603.2018.1436939</t>
   </si>
   <si>
-    <t>This study is a 2 × 2 × 2 between-subjects factorial experimental design with two additional continuous individual difference predictors (conception risk and vulnerability to sexual coercion). Manipulations included group status (ingroup vs outgroup), aggressive formidability (low vs high), and income (low vs high). (...) Simple main effects of the key manipulations were examined via independent samples t-tests. (...) women displayed a $$$ preference for outgroup men $$$ relative to ingroup men $$$.</t>
-  </si>
-  <si>
     <t>Language complexity, belief-consistency, and the evaluation of policies</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>10.1016/j.jrp.2017.10.005</t>
-  </si>
-  <si>
-    <t>We assessed the relationship between neuroticism and body vigilance two ways. First, we calculated the strength and significance of the bivariate correlation between neuroticism and body vigilance. Second, we calculated the partial correlation, controlling for age and gender. (...) Neuroticism was $$$ associated with sensation awareness belief $$$, even after controlling for age and gender $$$. Neuroticism was $$$ associated with change awareness belief $$$, even after controlling for age and gender $$$.</t>
   </si>
   <si>
     <t>Interactive Narratives Affecting Social Change: A Closer Look at the Relationship Between Interactivity and Prosocial Behavior</t>
@@ -212,9 +206,6 @@
 </t>
   </si>
   <si>
-    <t>To test the hypothesis, a Bayesian repeated measures ANOVA was performed on the mean test scores with subtitles (yes/no) and visual information (yes/no) as within-subject variables, and English proficiency asbetween-subject variable (1–5). A Bayesian model comparison was used to decide on the model with the strongest evidence compared with the other models. (...) The preregistered hypothesis was that the data would be best explained by the full three-way interaction model (Model 15). While there is $$$ evidence for this model than for a null model, the data favor the $$$ model</t>
-  </si>
-  <si>
     <t xml:space="preserve">Testing the Attentional Dwelling Hypothesis of Attentional Capture
 </t>
   </si>
@@ -243,9 +234,6 @@
   <si>
     <t xml:space="preserve">10.1080/23743603.2017.1341178
 </t>
-  </si>
-  <si>
-    <t>To finally begin the direct tests of our pre-registered hypotheses, we tested the hypothesis that participants who were assigned to hold expanded (vs. contracted) bodily postures would have higher self-concept size. Data for the four self-concept size measures were standardized to z-scores and then summed to create a composite self-concept size score. An independent samples t-test revealed $$$ differences between contracted and expanded postures on this composite</t>
   </si>
   <si>
     <t xml:space="preserve">A test of the diffusion model explanation for the worst performance rule using preregistration and blinding
@@ -485,9 +473,6 @@
     <t>10.1016/j.rasd.2014.11.008</t>
   </si>
   <si>
-    <t>A t-test was used to test the primary hypothesis, that the high-expressing genotype would be associated with tactile hyperresponsiveness within children with ASD. The primary analysis revealed a $$$ difference in tactile hyperresponsiveness by genotype within the ASD group ($$$).</t>
-  </si>
-  <si>
     <t>Research in Autism Spectrum Disorders</t>
   </si>
   <si>
@@ -500,9 +485,6 @@
     <t>10.1080/00224545.2014.901286</t>
   </si>
   <si>
-    <t>We conducted a 2 (participant gender: male, female) × 2 (target sex: male, female) × 2 (target facial morphology: baby, mature) × 2 (time: Time 1, Time 2) univariate ANCOVA with composite belongingness needs satisfaction level as the dependent measure and mood scores as covariates. (...) This analysis $$$ predicted main effect of target morphology on participants’ belongingness needs satisfaction, $$$. Participants reported $$$ belongingness needs satisfaction following an interaction with a baby-face target $$$ than a mature-face target $$$.</t>
-  </si>
-  <si>
     <t>Journal of Social Psychology</t>
   </si>
   <si>
@@ -525,9 +507,6 @@
   </si>
   <si>
     <t>10.1002/pon.3230</t>
-  </si>
-  <si>
-    <t>A sequence of linear regression models were used to assess the extent to which body image, self-compassion, comfort with weight and pressure from others were associated with psychological distress. (...) body image disturbance scores were $$$ with the measures of psychological distress and pressure from others and $$$ with self-compassion and comfort with own weight. Self-compassion was also $$$ with the three distress measures, with $$$ levels of self-compassion associated with $$$ psychological distress.</t>
   </si>
   <si>
     <t>Psycho-Oncology</t>
@@ -544,9 +523,6 @@
     <t>10.1002/jts.21879</t>
   </si>
   <si>
-    <t>We next tested the hypothesized relationships involving the SAQ factors (Recognition, General Disapproval and family Disapproval) as correlates of PTSD and depression. This was accomplished through structural equation modeling (SEM) in Mplus (version 6.11; Muthen &amp; Muth ´ en, 2011). Following ´ Kline’s (2011) procedures, SEM equations were computed stepwise. First, measurement models were computed to examine the fit of the observed variables to their corresponding latent factors. Second, structural regression models were computed to test the association between SAQ factors and PTSD and depression. (...) The model regression pathways were $$$ of Hypothesis 2. Specifically, General Disapproval and Family Disapproval were $$$ to depression. General Disapproval, but not Family Disapproval, was $$$ to PTSD (see Figure 1)</t>
-  </si>
-  <si>
     <t>Journal of Traumatic Stress</t>
   </si>
   <si>
@@ -559,9 +535,6 @@
     <t>10.1016/j.chb.2016.07.055</t>
   </si>
   <si>
-    <t>The t-test was used to compare the mean differences between these two subsamples. The KMS implementers have $$$ levels of perceived benefits, compatibility, sufficient resources, technology competence, top management support, organizational culture, and competitive pressure; while the non-implementers report $$$ of concern on complexity</t>
-  </si>
-  <si>
     <t>Computers in Human Behavior</t>
   </si>
   <si>
@@ -572,9 +545,6 @@
   </si>
   <si>
     <t>10.3758/s13414-014-0790-4</t>
-  </si>
-  <si>
-    <t>The results were analyzed in a 2 (Anchors) ×3 (Lag) ANOVA, which revealed $$$ effects of Anchors</t>
   </si>
   <si>
     <t>Perceptual hysteresis as a marker of perceptual inflexibility in schizophrenia</t>
@@ -623,9 +593,6 @@
   </si>
   <si>
     <t>10.1016/j.paid.2014.07.035</t>
-  </si>
-  <si>
-    <t>Using hierarchical multiple regression analyses, we entered as a covariate the total number of words used in narratives. We also controlled for the number of negative emotion words used to determine if contemplation of one’s death influenced positive emotion word use above and beyond the effect of negative emotions. (...) In Experiment 1a, mortality salience resulted in $$$ positive words in narratives $$$ than did dental pain $$$</t>
   </si>
   <si>
     <t>In Cognitive Therapy for Depression, Early Focus on Maladaptive Beliefs May Be Especially Efficacious for Patients With Personality Disorders</t>
@@ -706,9 +673,6 @@
     <t>10.3389/fpsyg.2018.01579</t>
   </si>
   <si>
-    <t>However, we proceeded to the subsequent follow up comparisons through two protected t-tests (in line with the recommendations provided by Howell, 2012) in order to test for our specific H1. Results showed that, only in the natural environment, participants $$$ their sustained and selective attention from T1 to T2.</t>
-  </si>
-  <si>
     <t>Acquisition of nicotine self-administration in amphetamine and phencyclidine models of schizophrenia: A role for stress?</t>
   </si>
   <si>
@@ -772,9 +736,6 @@
 </t>
   </si>
   <si>
-    <t>$$$ growth beliefs were related to $$$ physical assault perpetrated in close interpersonal relationships [using a t-test], $$$</t>
-  </si>
-  <si>
     <t>Personality and Social Psychology Bulletin</t>
   </si>
   <si>
@@ -850,13 +811,52 @@
     <t>10.3389/fpsyg.2014.00875</t>
   </si>
   <si>
-    <t>Based on the results of the categorization task, participants in condition 1 were expected to be more likely to indicate the neutral face (a) being similar to the frowning face (b) as compared to participants in condition 2 (...) the diagnosticity effect was calculated by subtracting the choice proportion in condition 2 from the choice proportion in condition 1, resulting in a diagnosticity effect of $$$%, χ2(1, N =254) = $$$, p = $$$, Cramer’s V = $$$.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Frontiers in Psychology</t>
   </si>
   <si>
     <t>quote_present</t>
+  </si>
+  <si>
+    <t>This study is a 2 × 2 × 2 between-subjects factorial experimental design with two additional continuous individual difference predictors (conception risk and vulnerability to sexual coercion). Manipulations included group status (ingroup vs outgroup), aggressive formidability (low vs high), and income (low vs high). (...) Simple main effects of the key manipulations were examined via independent samples t-tests. (...) women displayed a ... preference for outgroup men ... relative to ingroup men ....</t>
+  </si>
+  <si>
+    <t>We assessed the relationship between neuroticism and body vigilance two ways. First, we calculated the strength and significance of the bivariate correlation between neuroticism and body vigilance. Second, we calculated the partial correlation, controlling for age and gender. (...) Neuroticism was ... associated with sensation awareness belief ..., even after controlling for age and gender .... Neuroticism was ... associated with change awareness belief ..., even after controlling for age and gender ....</t>
+  </si>
+  <si>
+    <t>To test the hypothesis, a Bayesian repeated measures ANOVA was performed on the mean test scores with subtitles (yes/no) and visual information (yes/no) as within-subject variables, and English proficiency asbetween-subject variable (1–5). A Bayesian model comparison was used to decide on the model with the strongest evidence compared with the other models. (...) The preregistered hypothesis was that the data would be best explained by the full three-way interaction model (Model 15). While there is ... evidence for this model than for a null model, the data favor the ... model</t>
+  </si>
+  <si>
+    <t>To finally begin the direct tests of our pre-registered hypotheses, we tested the hypothesis that participants who were assigned to hold expanded (vs. contracted) bodily postures would have higher self-concept size. Data for the four self-concept size measures were standardized to z-scores and then summed to create a composite self-concept size score. An independent samples t-test revealed ... differences between contracted and expanded postures on this composite</t>
+  </si>
+  <si>
+    <t>A t-test was used to test the primary hypothesis, that the high-expressing genotype would be associated with tactile hyperresponsiveness within children with ASD. The primary analysis revealed a ... difference in tactile hyperresponsiveness by genotype within the ASD group (...).</t>
+  </si>
+  <si>
+    <t>We conducted a 2 (participant gender: male, female) × 2 (target sex: male, female) × 2 (target facial morphology: baby, mature) × 2 (time: Time 1, Time 2) univariate ANCOVA with composite belongingness needs satisfaction level as the dependent measure and mood scores as covariates. (...) This analysis ... predicted main effect of target morphology on participants’ belongingness needs satisfaction, .... Participants reported ... belongingness needs satisfaction following an interaction with a baby-face target ... than a mature-face target ....</t>
+  </si>
+  <si>
+    <t>A sequence of linear regression models were used to assess the extent to which body image, self-compassion, comfort with weight and pressure from others were associated with psychological distress. (...) body image disturbance scores were ... with the measures of psychological distress and pressure from others and ... with self-compassion and comfort with own weight. Self-compassion was also ... with the three distress measures, with ... levels of self-compassion associated with ... psychological distress.</t>
+  </si>
+  <si>
+    <t>We next tested the hypothesized relationships involving the SAQ factors (Recognition, General Disapproval and family Disapproval) as correlates of PTSD and depression. This was accomplished through structural equation modeling (SEM) in Mplus (version 6.11; Muthen &amp; Muth ´ en, 2011). Following ´ Kline’s (2011) procedures, SEM equations were computed stepwise. First, measurement models were computed to examine the fit of the observed variables to their corresponding latent factors. Second, structural regression models were computed to test the association between SAQ factors and PTSD and depression. (...) The model regression pathways were ... of Hypothesis 2. Specifically, General Disapproval and Family Disapproval were ... to depression. General Disapproval, but not Family Disapproval, was ... to PTSD (see Figure 1)</t>
+  </si>
+  <si>
+    <t>The t-test was used to compare the mean differences between these two subsamples. The KMS implementers have ... levels of perceived benefits, compatibility, sufficient resources, technology competence, top management support, organizational culture, and competitive pressure; while the non-implementers report ... of concern on complexity</t>
+  </si>
+  <si>
+    <t>The results were analyzed in a 2 (Anchors) ×3 (Lag) ANOVA, which revealed ... effects of Anchors</t>
+  </si>
+  <si>
+    <t>Using hierarchical multiple regression analyses, we entered as a covariate the total number of words used in narratives. We also controlled for the number of negative emotion words used to determine if contemplation of one’s death influenced positive emotion word use above and beyond the effect of negative emotions. (...) In Experiment 1a, mortality salience resulted in ... positive words in narratives ... than did dental pain ...</t>
+  </si>
+  <si>
+    <t>However, we proceeded to the subsequent follow up comparisons through two protected t-tests (in line with the recommendations provided by Howell, 2012) in order to test for our specific H1. Results showed that, only in the natural environment, participants ... their sustained and selective attention from T1 to T2.</t>
+  </si>
+  <si>
+    <t>... growth beliefs were related to ... physical assault perpetrated in close interpersonal relationships [using a t-test], ...</t>
+  </si>
+  <si>
+    <t>Based on the results of the categorization task, participants in condition 1 were expected to be more likely to indicate the neutral face (a) being similar to the frowning face (b) as compared to participants in condition 2 (...) the diagnosticity effect was calculated by subtracting the choice proportion in condition 2 from the choice proportion in condition 1, resulting in a diagnosticity effect of ...%, χ2(1, N =254) = ..., p = ..., Cramer’s V = ....</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D279" sqref="D3:D279"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="F15" s="4">
         <v>2018</v>
@@ -1616,7 +1616,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="F16" s="4">
         <v>2018</v>
@@ -1643,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="F17" s="4">
         <v>2018</v>
@@ -1670,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="F18" s="4">
         <v>2018</v>
@@ -1688,13 +1688,13 @@
         <v>89270001</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
@@ -1715,13 +1715,13 @@
         <v>77295838</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -1742,16 +1742,16 @@
         <v>75903843</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F21" s="4">
         <v>2017</v>
@@ -1769,16 +1769,16 @@
         <v>60631618</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F22" s="4">
         <v>2017</v>
@@ -1796,16 +1796,16 @@
         <v>57371585</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F23" s="4">
         <v>2017</v>
@@ -1823,16 +1823,16 @@
         <v>41294073</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="F24" s="4">
         <v>2018</v>
@@ -1850,16 +1850,16 @@
         <v>82829717</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="F25" s="4">
         <v>2018</v>
@@ -1877,22 +1877,22 @@
         <v>19706661</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F26" s="4">
         <v>2017</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H26" t="b">
         <f t="shared" si="0"/>
@@ -1904,22 +1904,22 @@
         <v>41672048</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F27" s="4">
         <v>2017</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" t="b">
         <f t="shared" si="0"/>
@@ -1931,22 +1931,22 @@
         <v>85134423</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F28" s="4">
         <v>2017</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" t="b">
         <f t="shared" si="0"/>
@@ -1958,22 +1958,22 @@
         <v>56471204</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F29" s="4">
         <v>2017</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" t="b">
         <f t="shared" si="0"/>
@@ -1985,22 +1985,22 @@
         <v>91085989</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F30" s="4">
         <v>2017</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H30" t="b">
         <f t="shared" si="0"/>
@@ -2012,22 +2012,22 @@
         <v>31738064</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F31" s="4">
         <v>2017</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" t="b">
         <f t="shared" si="0"/>
@@ -2039,22 +2039,22 @@
         <v>21464216</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F32" s="4">
         <v>2017</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32" t="b">
         <f t="shared" si="0"/>
@@ -2066,22 +2066,22 @@
         <v>51201022</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F33" s="4">
         <v>2017</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H33" t="b">
         <f t="shared" si="0"/>
@@ -2093,22 +2093,22 @@
         <v>82965421</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F34" s="4">
         <v>2017</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H34" t="b">
         <f t="shared" si="0"/>
@@ -2120,22 +2120,22 @@
         <v>56040239</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F35" s="4">
         <v>2017</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H35" t="b">
         <f t="shared" si="0"/>
@@ -2147,22 +2147,22 @@
         <v>88510365</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F36" s="4">
         <v>2017</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H36" t="b">
         <f t="shared" si="0"/>
@@ -2174,22 +2174,22 @@
         <v>86187444</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F37" s="4">
         <v>2017</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37" t="b">
         <f t="shared" si="0"/>
@@ -2201,22 +2201,22 @@
         <v>41247578</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F38" s="4">
         <v>2017</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38" t="b">
         <f t="shared" si="0"/>
@@ -2228,22 +2228,22 @@
         <v>15335135</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F39" s="4">
         <v>2017</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H39" t="b">
         <f t="shared" si="0"/>
@@ -2255,22 +2255,22 @@
         <v>90082915</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="F40" s="4">
         <v>2017</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H40" t="b">
         <f t="shared" si="0"/>
@@ -2282,22 +2282,22 @@
         <v>76762750</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E41" s="6" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="F41" s="4">
         <v>2017</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H41" t="b">
         <f t="shared" si="0"/>
@@ -2309,22 +2309,22 @@
         <v>63346271</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E42" s="6" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="F42" s="4">
         <v>2017</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H42" t="b">
         <f t="shared" si="0"/>
@@ -2336,22 +2336,22 @@
         <v>63209803</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="F43" s="4">
         <v>2017</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H43" t="b">
         <f t="shared" si="0"/>
@@ -2363,22 +2363,22 @@
         <v>73601479</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E44" s="6" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="F44" s="4">
         <v>2017</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H44" t="b">
         <f t="shared" si="0"/>
@@ -2390,22 +2390,22 @@
         <v>86692109</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F45" s="4">
         <v>2018</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H45" t="b">
         <f t="shared" si="0"/>
@@ -2417,22 +2417,22 @@
         <v>41638625</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F46" s="4">
         <v>2018</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H46" t="b">
         <f t="shared" si="0"/>
@@ -2444,22 +2444,22 @@
         <v>67907740</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F47" s="4">
         <v>2018</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H47" t="b">
         <f t="shared" si="0"/>
@@ -2471,22 +2471,22 @@
         <v>83166278</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F48" s="4">
         <v>2018</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H48" t="b">
         <f t="shared" si="0"/>
@@ -2498,16 +2498,16 @@
         <v>44412046</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="F49" s="4">
         <v>2017</v>
@@ -2525,16 +2525,16 @@
         <v>85857289</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="F50" s="4">
         <v>2017</v>
@@ -2552,16 +2552,16 @@
         <v>79408767</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="F51" s="4">
         <v>2017</v>
@@ -2579,16 +2579,16 @@
         <v>64314769</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="F52" s="4">
         <v>2017</v>
@@ -2606,16 +2606,16 @@
         <v>51317424</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="F53" s="4">
         <v>2017</v>
@@ -2633,22 +2633,22 @@
         <v>64740373</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F54" s="4">
         <v>2017</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H54" t="b">
         <f t="shared" si="0"/>
@@ -2660,22 +2660,22 @@
         <v>98401326</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F55" s="4">
         <v>2017</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H55" t="b">
         <f t="shared" si="0"/>
@@ -2687,22 +2687,22 @@
         <v>62036421</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F56" s="4">
         <v>2017</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H56" t="b">
         <f t="shared" si="0"/>
@@ -2714,22 +2714,22 @@
         <v>32998084</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F57" s="4">
         <v>2017</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H57" t="b">
         <f t="shared" si="0"/>
@@ -2741,22 +2741,22 @@
         <v>48594716</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F58" s="4">
         <v>2017</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H58" t="b">
         <f t="shared" si="0"/>
@@ -2768,22 +2768,22 @@
         <v>29264161</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="4">
         <v>2017</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H59" t="b">
         <f t="shared" si="0"/>
@@ -2795,22 +2795,22 @@
         <v>33862339</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="4">
         <v>2017</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H60" t="b">
         <f t="shared" si="0"/>
@@ -2822,22 +2822,22 @@
         <v>14961146</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="4">
         <v>2017</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H61" t="b">
         <f t="shared" si="0"/>
@@ -2849,22 +2849,22 @@
         <v>96078450</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="4">
         <v>2018</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H62" t="b">
         <f t="shared" si="0"/>
@@ -2876,22 +2876,22 @@
         <v>47465456</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="4">
         <v>2018</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H63" t="b">
         <f t="shared" si="0"/>
@@ -2903,22 +2903,22 @@
         <v>55403086</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F64" s="4">
         <v>2018</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H64" t="b">
         <f t="shared" si="0"/>
@@ -2930,22 +2930,22 @@
         <v>22822147</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="4">
         <v>2018</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H65" t="b">
         <f t="shared" si="0"/>
@@ -2957,16 +2957,16 @@
         <v>50471704</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="4">
         <v>2017</v>
@@ -2984,16 +2984,16 @@
         <v>62890900</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" s="4">
         <v>2017</v>
@@ -3011,16 +3011,16 @@
         <v>26577220</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="4">
         <v>2017</v>
@@ -3038,16 +3038,16 @@
         <v>63208023</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F69" s="4">
         <v>2017</v>
@@ -3065,16 +3065,16 @@
         <v>52979733</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F70" s="4">
         <v>2017</v>
@@ -3092,22 +3092,22 @@
         <v>94528317</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F71" s="4">
         <v>2017</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H71" t="b">
         <f t="shared" si="1"/>
@@ -3119,22 +3119,22 @@
         <v>32954649</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E72" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F72" s="4">
         <v>2017</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H72" t="b">
         <f t="shared" si="1"/>
@@ -3146,22 +3146,22 @@
         <v>75687157</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E73" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F73" s="4">
         <v>2017</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H73" t="b">
         <f t="shared" si="1"/>
@@ -3173,22 +3173,22 @@
         <v>73200578</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E74" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F74" s="4">
         <v>2017</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74" t="b">
         <f t="shared" si="1"/>
@@ -3200,22 +3200,22 @@
         <v>28664826</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E75" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F75" s="4">
         <v>2017</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H75" t="b">
         <f t="shared" si="1"/>
@@ -3227,13 +3227,13 @@
         <v>88133098</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>16</v>
@@ -3254,13 +3254,13 @@
         <v>37926518</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>16</v>
@@ -3281,13 +3281,13 @@
         <v>89789803</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>16</v>
@@ -3308,13 +3308,13 @@
         <v>12293723</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>16</v>
@@ -3323,7 +3323,7 @@
         <v>2018</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H79" t="b">
         <f t="shared" si="1"/>
@@ -3335,13 +3335,13 @@
         <v>79872597</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>16</v>
@@ -3350,7 +3350,7 @@
         <v>2018</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H80" t="b">
         <f t="shared" si="1"/>
@@ -3362,13 +3362,13 @@
         <v>25973191</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>16</v>
@@ -3377,7 +3377,7 @@
         <v>2018</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H81" t="b">
         <f t="shared" si="1"/>
@@ -3389,13 +3389,13 @@
         <v>17567737</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>16</v>
@@ -3404,7 +3404,7 @@
         <v>2018</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H82" t="b">
         <f t="shared" si="1"/>
@@ -3416,13 +3416,13 @@
         <v>25781564</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>16</v>
@@ -3431,7 +3431,7 @@
         <v>2018</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H83" t="b">
         <f t="shared" si="1"/>
@@ -3443,16 +3443,16 @@
         <v>74832042</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F84" s="4">
         <v>2016</v>
@@ -3470,16 +3470,16 @@
         <v>59067286</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F85" s="4">
         <v>2016</v>
@@ -3497,16 +3497,16 @@
         <v>60840024</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F86" s="4">
         <v>2016</v>
@@ -3524,16 +3524,16 @@
         <v>54012179</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F87" s="4">
         <v>2016</v>
@@ -3551,16 +3551,16 @@
         <v>44183526</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F88" s="4">
         <v>2016</v>
@@ -3578,16 +3578,16 @@
         <v>83715589</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F89" s="4">
         <v>2016</v>
@@ -3605,16 +3605,16 @@
         <v>46540188</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F90" s="4">
         <v>2016</v>
@@ -3632,16 +3632,16 @@
         <v>23202663</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F91" s="4">
         <v>2016</v>
@@ -3659,16 +3659,16 @@
         <v>65124289</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F92" s="4">
         <v>2016</v>
@@ -3686,16 +3686,16 @@
         <v>34890007</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F93" s="4">
         <v>2016</v>
@@ -3713,13 +3713,13 @@
         <v>84953314</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>16</v>
@@ -3740,16 +3740,16 @@
         <v>21377527</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F95" s="4">
         <v>2017</v>
@@ -3767,16 +3767,16 @@
         <v>21362730</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F96" s="4">
         <v>2017</v>
@@ -3794,16 +3794,16 @@
         <v>83162147</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F97" s="4">
         <v>2017</v>
@@ -3821,13 +3821,13 @@
         <v>40242820</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>16</v>
@@ -3836,7 +3836,7 @@
         <v>2017</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H98" t="b">
         <f t="shared" si="1"/>
@@ -3848,13 +3848,13 @@
         <v>64090661</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>16</v>
@@ -3863,7 +3863,7 @@
         <v>2017</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H99" t="b">
         <f t="shared" si="1"/>
@@ -3875,13 +3875,13 @@
         <v>49024150</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>16</v>
@@ -3890,7 +3890,7 @@
         <v>2017</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H100" t="b">
         <f t="shared" si="1"/>
@@ -3902,13 +3902,13 @@
         <v>45345128</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>16</v>
@@ -3917,7 +3917,7 @@
         <v>2015</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H101" t="b">
         <f t="shared" si="1"/>
@@ -3929,13 +3929,13 @@
         <v>37777690</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>16</v>
@@ -3944,7 +3944,7 @@
         <v>2015</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H102" t="b">
         <f t="shared" si="1"/>
@@ -3956,13 +3956,13 @@
         <v>23400789</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>16</v>
@@ -3971,7 +3971,7 @@
         <v>2015</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H103" t="b">
         <f t="shared" si="1"/>
@@ -3983,13 +3983,13 @@
         <v>93103432</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>16</v>
@@ -3998,7 +3998,7 @@
         <v>2015</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H104" t="b">
         <f t="shared" si="1"/>
@@ -4010,22 +4010,22 @@
         <v>82786031</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F105" s="4">
         <v>2018</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H105" t="b">
         <f t="shared" si="1"/>
@@ -4037,22 +4037,22 @@
         <v>50345472</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F106" s="4">
         <v>2018</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H106" t="b">
         <f t="shared" si="1"/>
@@ -4064,22 +4064,22 @@
         <v>77334592</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F107" s="4">
         <v>2018</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H107" t="b">
         <f t="shared" si="1"/>
@@ -4091,13 +4091,13 @@
         <v>23586093</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="4">
@@ -4116,13 +4116,13 @@
         <v>85837068</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="4">
@@ -4141,13 +4141,13 @@
         <v>50736627</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="4">
@@ -4166,22 +4166,22 @@
         <v>69112736</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F111" s="4">
         <v>2017</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H111" t="b">
         <f t="shared" si="1"/>
@@ -4193,22 +4193,22 @@
         <v>99665736</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F112" s="4">
         <v>2017</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H112" t="b">
         <f t="shared" si="1"/>
@@ -4220,22 +4220,22 @@
         <v>95230934</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F113" s="4">
         <v>2017</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H113" t="b">
         <f t="shared" si="1"/>
@@ -4247,22 +4247,22 @@
         <v>63898854</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F114" s="4">
         <v>2017</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H114" t="b">
         <f t="shared" si="1"/>
@@ -4274,22 +4274,22 @@
         <v>50267498</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F115" s="4">
         <v>2017</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H115" t="b">
         <f t="shared" si="1"/>
@@ -4301,22 +4301,22 @@
         <v>25105070</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F116" s="4">
         <v>2016</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H116" t="b">
         <f t="shared" si="1"/>
@@ -4328,22 +4328,22 @@
         <v>21095459</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F117" s="4">
         <v>2016</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H117" t="b">
         <f t="shared" si="1"/>
@@ -4355,22 +4355,22 @@
         <v>67885282</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F118" s="4">
         <v>2016</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H118" t="b">
         <f t="shared" si="1"/>
@@ -4382,22 +4382,22 @@
         <v>69446753</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F119" s="4">
         <v>2016</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H119" t="b">
         <f t="shared" si="1"/>
@@ -4409,22 +4409,22 @@
         <v>67719346</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F120" s="4">
         <v>2016</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H120" t="b">
         <f t="shared" si="1"/>
@@ -4436,22 +4436,22 @@
         <v>78165036</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F121" s="4">
         <v>2016</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H121" t="b">
         <f t="shared" si="1"/>
@@ -4463,22 +4463,22 @@
         <v>19158365</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F122" s="4">
         <v>2016</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H122" t="b">
         <f t="shared" si="1"/>
@@ -4490,22 +4490,22 @@
         <v>79177548</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F123" s="4">
         <v>2016</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H123" t="b">
         <f t="shared" si="1"/>
@@ -4517,22 +4517,22 @@
         <v>11205144</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F124" s="4">
         <v>2016</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H124" t="b">
         <f t="shared" si="1"/>
@@ -4544,22 +4544,22 @@
         <v>81380983</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F125" s="4">
         <v>2016</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H125" t="b">
         <f t="shared" si="1"/>
@@ -4571,22 +4571,22 @@
         <v>44461705</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F126" s="4">
         <v>2016</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H126" t="b">
         <f t="shared" si="1"/>
@@ -4598,22 +4598,22 @@
         <v>46153572</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F127" s="4">
         <v>2016</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H127" t="b">
         <f t="shared" si="1"/>
@@ -4625,22 +4625,22 @@
         <v>48094130</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F128" s="4">
         <v>2015</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H128" t="b">
         <f t="shared" si="1"/>
@@ -4652,22 +4652,22 @@
         <v>79520350</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F129" s="4">
         <v>2015</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H129" t="b">
         <f t="shared" si="1"/>
@@ -4679,22 +4679,22 @@
         <v>48434917</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F130" s="4">
         <v>2015</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H130" t="b">
         <f t="shared" si="1"/>
@@ -4706,13 +4706,13 @@
         <v>16714268</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>16</v>
@@ -4721,7 +4721,7 @@
         <v>2015</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H131" t="b">
         <f t="shared" ref="H131:H194" si="2">E131&lt;&gt;"."</f>
@@ -4733,13 +4733,13 @@
         <v>68480503</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>16</v>
@@ -4748,7 +4748,7 @@
         <v>2015</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H132" t="b">
         <f t="shared" si="2"/>
@@ -4760,13 +4760,13 @@
         <v>95752361</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>16</v>
@@ -4775,7 +4775,7 @@
         <v>2015</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H133" t="b">
         <f t="shared" si="2"/>
@@ -4787,13 +4787,13 @@
         <v>53422020</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>16</v>
@@ -4802,7 +4802,7 @@
         <v>2015</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H134" t="b">
         <f t="shared" si="2"/>
@@ -4814,13 +4814,13 @@
         <v>98099421</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>16</v>
@@ -4829,7 +4829,7 @@
         <v>2015</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H135" t="b">
         <f t="shared" si="2"/>
@@ -4841,13 +4841,13 @@
         <v>30352564</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>16</v>
@@ -4856,7 +4856,7 @@
         <v>2015</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H136" t="b">
         <f t="shared" si="2"/>
@@ -4868,13 +4868,13 @@
         <v>93094009</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>16</v>
@@ -4883,7 +4883,7 @@
         <v>2015</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H137" t="b">
         <f t="shared" si="2"/>
@@ -4895,13 +4895,13 @@
         <v>45511772</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>16</v>
@@ -4910,7 +4910,7 @@
         <v>2015</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H138" t="b">
         <f t="shared" si="2"/>
@@ -4922,13 +4922,13 @@
         <v>77791501</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>16</v>
@@ -4937,7 +4937,7 @@
         <v>2015</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H139" t="b">
         <f t="shared" si="2"/>
@@ -4949,13 +4949,13 @@
         <v>93852873</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>16</v>
@@ -4964,7 +4964,7 @@
         <v>2015</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H140" t="b">
         <f t="shared" si="2"/>
@@ -4976,13 +4976,13 @@
         <v>89621070</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>16</v>
@@ -4991,7 +4991,7 @@
         <v>2015</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H141" t="b">
         <f t="shared" si="2"/>
@@ -5003,13 +5003,13 @@
         <v>38748697</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>16</v>
@@ -5018,7 +5018,7 @@
         <v>2015</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H142" t="b">
         <f t="shared" si="2"/>
@@ -5030,22 +5030,22 @@
         <v>57799152</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="F143" s="4">
         <v>2015</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H143" t="b">
         <f t="shared" si="2"/>
@@ -5057,22 +5057,22 @@
         <v>83598178</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="F144" s="4">
         <v>2015</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H144" t="b">
         <f t="shared" si="2"/>
@@ -5084,22 +5084,22 @@
         <v>12988042</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="F145" s="4">
         <v>2015</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H145" t="b">
         <f t="shared" si="2"/>
@@ -5111,22 +5111,22 @@
         <v>17666502</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="F146" s="4">
         <v>2015</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H146" t="b">
         <f t="shared" si="2"/>
@@ -5138,22 +5138,22 @@
         <v>98088611</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="F147" s="4">
         <v>2014</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H147" t="b">
         <f t="shared" si="2"/>
@@ -5165,22 +5165,22 @@
         <v>10309457</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="F148" s="4">
         <v>2014</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H148" t="b">
         <f t="shared" si="2"/>
@@ -5192,22 +5192,22 @@
         <v>36320335</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="F149" s="4">
         <v>2014</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H149" t="b">
         <f t="shared" si="2"/>
@@ -5219,22 +5219,22 @@
         <v>56820950</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="F150" s="4">
         <v>2014</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H150" t="b">
         <f t="shared" si="2"/>
@@ -5246,13 +5246,13 @@
         <v>53535947</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>16</v>
@@ -5261,7 +5261,7 @@
         <v>2015</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H151" t="b">
         <f t="shared" si="2"/>
@@ -5273,13 +5273,13 @@
         <v>85433969</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>16</v>
@@ -5288,7 +5288,7 @@
         <v>2015</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H152" t="b">
         <f t="shared" si="2"/>
@@ -5300,22 +5300,22 @@
         <v>97864229</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="F153" s="4">
         <v>2013</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H153" t="b">
         <f t="shared" si="2"/>
@@ -5327,22 +5327,22 @@
         <v>94837102</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="F154" s="4">
         <v>2013</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H154" t="b">
         <f t="shared" si="2"/>
@@ -5354,22 +5354,22 @@
         <v>21751534</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="F155" s="4">
         <v>2013</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H155" t="b">
         <f t="shared" si="2"/>
@@ -5381,22 +5381,22 @@
         <v>70185414</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="F156" s="4">
         <v>2013</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H156" t="b">
         <f t="shared" si="2"/>
@@ -5408,22 +5408,22 @@
         <v>84914969</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="F157" s="4">
         <v>2013</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H157" t="b">
         <f t="shared" si="2"/>
@@ -5435,22 +5435,22 @@
         <v>69636342</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="F158" s="4">
         <v>2013</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H158" t="b">
         <f t="shared" si="2"/>
@@ -5462,22 +5462,22 @@
         <v>64919086</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="F159" s="4">
         <v>2014</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H159" t="b">
         <f t="shared" si="2"/>
@@ -5489,22 +5489,22 @@
         <v>43484960</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="F160" s="4">
         <v>2014</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H160" t="b">
         <f t="shared" si="2"/>
@@ -5516,22 +5516,22 @@
         <v>38490559</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="F161" s="4">
         <v>2014</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H161" t="b">
         <f t="shared" si="2"/>
@@ -5543,22 +5543,22 @@
         <v>80971335</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="F162" s="4">
         <v>2016</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H162" t="b">
         <f t="shared" si="2"/>
@@ -5570,22 +5570,22 @@
         <v>77395217</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="F163" s="4">
         <v>2016</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H163" t="b">
         <f t="shared" si="2"/>
@@ -5597,22 +5597,22 @@
         <v>11654950</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F164" s="4">
         <v>2015</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H164" t="b">
         <f t="shared" si="2"/>
@@ -5624,22 +5624,22 @@
         <v>88978619</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F165" s="4">
         <v>2015</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H165" t="b">
         <f t="shared" si="2"/>
@@ -5651,13 +5651,13 @@
         <v>86172634</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>16</v>
@@ -5666,7 +5666,7 @@
         <v>2014</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H166" t="b">
         <f t="shared" si="2"/>
@@ -5678,13 +5678,13 @@
         <v>92231433</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>16</v>
@@ -5693,7 +5693,7 @@
         <v>2014</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H167" t="b">
         <f t="shared" si="2"/>
@@ -5705,13 +5705,13 @@
         <v>56398863</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>16</v>
@@ -5720,7 +5720,7 @@
         <v>2014</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H168" t="b">
         <f t="shared" si="2"/>
@@ -5732,13 +5732,13 @@
         <v>54555915</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>16</v>
@@ -5747,7 +5747,7 @@
         <v>2014</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H169" t="b">
         <f t="shared" si="2"/>
@@ -5759,13 +5759,13 @@
         <v>75098367</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>16</v>
@@ -5774,7 +5774,7 @@
         <v>2014</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H170" t="b">
         <f t="shared" si="2"/>
@@ -5786,13 +5786,13 @@
         <v>24008995</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>16</v>
@@ -5801,7 +5801,7 @@
         <v>2014</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H171" t="b">
         <f t="shared" si="2"/>
@@ -5813,13 +5813,13 @@
         <v>86595104</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>16</v>
@@ -5828,7 +5828,7 @@
         <v>2014</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H172" t="b">
         <f t="shared" si="2"/>
@@ -5840,13 +5840,13 @@
         <v>73564980</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>16</v>
@@ -5855,7 +5855,7 @@
         <v>2014</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H173" t="b">
         <f t="shared" si="2"/>
@@ -5867,22 +5867,22 @@
         <v>30678969</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F174" s="4">
         <v>2018</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H174" t="b">
         <f t="shared" si="2"/>
@@ -5894,22 +5894,22 @@
         <v>62418129</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F175" s="4">
         <v>2018</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H175" t="b">
         <f t="shared" si="2"/>
@@ -5921,22 +5921,22 @@
         <v>63738981</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F176" s="4">
         <v>2018</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H176" t="b">
         <f t="shared" si="2"/>
@@ -5948,22 +5948,22 @@
         <v>89229454</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F177" s="4">
         <v>2018</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H177" t="b">
         <f t="shared" si="2"/>
@@ -5975,22 +5975,22 @@
         <v>22161748</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F178" s="4">
         <v>2018</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H178" t="b">
         <f t="shared" si="2"/>
@@ -6002,13 +6002,13 @@
         <v>20866513</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>16</v>
@@ -6017,7 +6017,7 @@
         <v>2014</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H179" t="b">
         <f t="shared" si="2"/>
@@ -6029,13 +6029,13 @@
         <v>70486261</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>16</v>
@@ -6044,7 +6044,7 @@
         <v>2014</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H180" t="b">
         <f t="shared" si="2"/>
@@ -6056,13 +6056,13 @@
         <v>60099549</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>16</v>
@@ -6071,7 +6071,7 @@
         <v>2014</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H181" t="b">
         <f t="shared" si="2"/>
@@ -6083,13 +6083,13 @@
         <v>89185431</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>16</v>
@@ -6098,7 +6098,7 @@
         <v>2014</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H182" t="b">
         <f t="shared" si="2"/>
@@ -6110,13 +6110,13 @@
         <v>57068101</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>16</v>
@@ -6125,7 +6125,7 @@
         <v>2014</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H183" t="b">
         <f t="shared" si="2"/>
@@ -6137,13 +6137,13 @@
         <v>96683375</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>16</v>
@@ -6152,7 +6152,7 @@
         <v>2014</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H184" t="b">
         <f t="shared" si="2"/>
@@ -6164,13 +6164,13 @@
         <v>32441364</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>16</v>
@@ -6179,7 +6179,7 @@
         <v>2014</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H185" t="b">
         <f t="shared" si="2"/>
@@ -6191,13 +6191,13 @@
         <v>36152827</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>16</v>
@@ -6206,7 +6206,7 @@
         <v>2014</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H186" t="b">
         <f t="shared" si="2"/>
@@ -6218,13 +6218,13 @@
         <v>28041699</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>16</v>
@@ -6233,7 +6233,7 @@
         <v>2014</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H187" t="b">
         <f t="shared" si="2"/>
@@ -6245,13 +6245,13 @@
         <v>37513495</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>16</v>
@@ -6260,7 +6260,7 @@
         <v>2014</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H188" t="b">
         <f t="shared" si="2"/>
@@ -6272,13 +6272,13 @@
         <v>31418463</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>16</v>
@@ -6287,7 +6287,7 @@
         <v>2014</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H189" t="b">
         <f t="shared" si="2"/>
@@ -6299,22 +6299,22 @@
         <v>58020044</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F190" s="4">
         <v>2014</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H190" t="b">
         <f t="shared" si="2"/>
@@ -6326,22 +6326,22 @@
         <v>30239912</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F191" s="4">
         <v>2014</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H191" t="b">
         <f t="shared" si="2"/>
@@ -6353,22 +6353,22 @@
         <v>53944357</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F192" s="4">
         <v>2014</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H192" t="b">
         <f t="shared" si="2"/>
@@ -6380,22 +6380,22 @@
         <v>56361446</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F193" s="4">
         <v>2014</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H193" t="b">
         <f t="shared" si="2"/>
@@ -6407,22 +6407,22 @@
         <v>30583617</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F194" s="4">
         <v>2014</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H194" t="b">
         <f t="shared" si="2"/>
@@ -6434,22 +6434,22 @@
         <v>66632400</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F195" s="4">
         <v>2014</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H195" t="b">
         <f t="shared" ref="H195:H258" si="3">E195&lt;&gt;"."</f>
@@ -6461,22 +6461,22 @@
         <v>46532753</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F196" s="4">
         <v>2014</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H196" t="b">
         <f t="shared" si="3"/>
@@ -6488,22 +6488,22 @@
         <v>31680999</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F197" s="4">
         <v>2014</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H197" t="b">
         <f t="shared" si="3"/>
@@ -6515,22 +6515,22 @@
         <v>20622308</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F198" s="4">
         <v>2014</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H198" t="b">
         <f t="shared" si="3"/>
@@ -6542,22 +6542,22 @@
         <v>96483561</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F199" s="4">
         <v>2014</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H199" t="b">
         <f t="shared" si="3"/>
@@ -6569,13 +6569,13 @@
         <v>29822414</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>16</v>
@@ -6584,7 +6584,7 @@
         <v>2016</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H200" t="b">
         <f t="shared" si="3"/>
@@ -6596,13 +6596,13 @@
         <v>79052158</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>16</v>
@@ -6611,7 +6611,7 @@
         <v>2016</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H201" t="b">
         <f t="shared" si="3"/>
@@ -6623,13 +6623,13 @@
         <v>93838226</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>16</v>
@@ -6638,7 +6638,7 @@
         <v>2016</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H202" t="b">
         <f t="shared" si="3"/>
@@ -6650,22 +6650,22 @@
         <v>90293201</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F203" s="4">
         <v>2016</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H203" t="b">
         <f t="shared" si="3"/>
@@ -6677,22 +6677,22 @@
         <v>46065985</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F204" s="4">
         <v>2016</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H204" t="b">
         <f t="shared" si="3"/>
@@ -6704,22 +6704,22 @@
         <v>58382301</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F205" s="4">
         <v>2016</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H205" t="b">
         <f t="shared" si="3"/>
@@ -6731,22 +6731,22 @@
         <v>21442270</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F206" s="4">
         <v>2016</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H206" t="b">
         <f t="shared" si="3"/>
@@ -6758,22 +6758,22 @@
         <v>61909731</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F207" s="4">
         <v>2016</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H207" t="b">
         <f t="shared" si="3"/>
@@ -6785,22 +6785,22 @@
         <v>83808554</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F208" s="4">
         <v>2016</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H208" t="b">
         <f t="shared" si="3"/>
@@ -6812,22 +6812,22 @@
         <v>94772661</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F209" s="4">
         <v>2016</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H209" t="b">
         <f t="shared" si="3"/>
@@ -6839,22 +6839,22 @@
         <v>99441867</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F210" s="4">
         <v>2016</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H210" t="b">
         <f t="shared" si="3"/>
@@ -6866,22 +6866,22 @@
         <v>42179040</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F211" s="4">
         <v>2016</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H211" t="b">
         <f t="shared" si="3"/>
@@ -6893,22 +6893,22 @@
         <v>68989262</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F212" s="4">
         <v>2016</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H212" t="b">
         <f t="shared" si="3"/>
@@ -6920,22 +6920,22 @@
         <v>56192876</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F213" s="4">
         <v>2016</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H213" t="b">
         <f t="shared" si="3"/>
@@ -6947,22 +6947,22 @@
         <v>28214251</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F214" s="4">
         <v>2016</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H214" t="b">
         <f t="shared" si="3"/>
@@ -6974,22 +6974,22 @@
         <v>43658124</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F215" s="4">
         <v>2016</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H215" t="b">
         <f t="shared" si="3"/>
@@ -7001,22 +7001,22 @@
         <v>73649204</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F216" s="4">
         <v>2016</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H216" t="b">
         <f t="shared" si="3"/>
@@ -7028,22 +7028,22 @@
         <v>71910417</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F217" s="4">
         <v>2016</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H217" t="b">
         <f t="shared" si="3"/>
@@ -7055,13 +7055,13 @@
         <v>33786556</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>16</v>
@@ -7070,7 +7070,7 @@
         <v>2016</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H218" t="b">
         <f t="shared" si="3"/>
@@ -7082,13 +7082,13 @@
         <v>63901121</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>16</v>
@@ -7097,7 +7097,7 @@
         <v>2016</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H219" t="b">
         <f t="shared" si="3"/>
@@ -7109,13 +7109,13 @@
         <v>90077954</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>16</v>
@@ -7124,7 +7124,7 @@
         <v>2016</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H220" t="b">
         <f t="shared" si="3"/>
@@ -7136,22 +7136,22 @@
         <v>74851440</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F221" s="4">
         <v>2013</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H221" t="b">
         <f t="shared" si="3"/>
@@ -7163,22 +7163,22 @@
         <v>56394266</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F222" s="4">
         <v>2013</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H222" t="b">
         <f t="shared" si="3"/>
@@ -7190,22 +7190,22 @@
         <v>85616382</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F223" s="4">
         <v>2013</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H223" t="b">
         <f t="shared" si="3"/>
@@ -7217,22 +7217,22 @@
         <v>16287688</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F224" s="4">
         <v>2013</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H224" t="b">
         <f t="shared" si="3"/>
@@ -7244,22 +7244,22 @@
         <v>32016923</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F225" s="4">
         <v>2013</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H225" t="b">
         <f t="shared" si="3"/>
@@ -7271,22 +7271,22 @@
         <v>26352526</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F226" s="4">
         <v>2018</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H226" t="b">
         <f t="shared" si="3"/>
@@ -7298,22 +7298,22 @@
         <v>35596743</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F227" s="4">
         <v>2018</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H227" t="b">
         <f t="shared" si="3"/>
@@ -7325,22 +7325,22 @@
         <v>22073028</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F228" s="4">
         <v>2018</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H228" t="b">
         <f t="shared" si="3"/>
@@ -7352,22 +7352,22 @@
         <v>45837677</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F229" s="4">
         <v>2018</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H229" t="b">
         <f t="shared" si="3"/>
@@ -7379,22 +7379,22 @@
         <v>82050200</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F230" s="4">
         <v>2018</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H230" t="b">
         <f t="shared" si="3"/>
@@ -7406,22 +7406,22 @@
         <v>30741184</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F231" s="4">
         <v>2018</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H231" t="b">
         <f t="shared" si="3"/>
@@ -7433,22 +7433,22 @@
         <v>23596356</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F232" s="4">
         <v>2018</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H232" t="b">
         <f t="shared" si="3"/>
@@ -7460,13 +7460,13 @@
         <v>45924128</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>16</v>
@@ -7475,7 +7475,7 @@
         <v>2018</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H233" t="b">
         <f t="shared" si="3"/>
@@ -7487,13 +7487,13 @@
         <v>79964420</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>16</v>
@@ -7502,7 +7502,7 @@
         <v>2018</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H234" t="b">
         <f t="shared" si="3"/>
@@ -7514,13 +7514,13 @@
         <v>78714558</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>16</v>
@@ -7529,7 +7529,7 @@
         <v>2018</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H235" t="b">
         <f t="shared" si="3"/>
@@ -7541,13 +7541,13 @@
         <v>78432514</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>16</v>
@@ -7556,7 +7556,7 @@
         <v>2018</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H236" t="b">
         <f t="shared" si="3"/>
@@ -7568,22 +7568,22 @@
         <v>95051463</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F237" s="4">
         <v>2014</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H237" t="b">
         <f t="shared" si="3"/>
@@ -7595,22 +7595,22 @@
         <v>21993803</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F238" s="4">
         <v>2014</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H238" t="b">
         <f t="shared" si="3"/>
@@ -7622,22 +7622,22 @@
         <v>32833085</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F239" s="4">
         <v>2014</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H239" t="b">
         <f t="shared" si="3"/>
@@ -7649,22 +7649,22 @@
         <v>52313408</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F240" s="4">
         <v>2017</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H240" t="b">
         <f t="shared" si="3"/>
@@ -7676,22 +7676,22 @@
         <v>85418104</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F241" s="4">
         <v>2017</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H241" t="b">
         <f t="shared" si="3"/>
@@ -7703,22 +7703,22 @@
         <v>61121361</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F242" s="4">
         <v>2017</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H242" t="b">
         <f t="shared" si="3"/>
@@ -7730,13 +7730,13 @@
         <v>75616873</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>16</v>
@@ -7745,7 +7745,7 @@
         <v>2018</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H243" t="b">
         <f t="shared" si="3"/>
@@ -7757,13 +7757,13 @@
         <v>43432223</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>16</v>
@@ -7772,7 +7772,7 @@
         <v>2018</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H244" t="b">
         <f t="shared" si="3"/>
@@ -7784,22 +7784,22 @@
         <v>81225118</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F245" s="4">
         <v>2013</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H245" t="b">
         <f t="shared" si="3"/>
@@ -7811,22 +7811,22 @@
         <v>82443575</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F246" s="4">
         <v>2013</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H246" t="b">
         <f t="shared" si="3"/>
@@ -7838,22 +7838,22 @@
         <v>43116652</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F247" s="4">
         <v>2013</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H247" t="b">
         <f t="shared" si="3"/>
@@ -7865,22 +7865,22 @@
         <v>90098528</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F248" s="4">
         <v>2013</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H248" t="b">
         <f t="shared" si="3"/>
@@ -7892,22 +7892,22 @@
         <v>51446532</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F249" s="4">
         <v>2017</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H249" t="b">
         <f t="shared" si="3"/>
@@ -7919,22 +7919,22 @@
         <v>82939919</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F250" s="4">
         <v>2017</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H250" t="b">
         <f t="shared" si="3"/>
@@ -7946,22 +7946,22 @@
         <v>62600519</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F251" s="4">
         <v>2017</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H251" t="b">
         <f t="shared" si="3"/>
@@ -7973,22 +7973,22 @@
         <v>62779781</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F252" s="4">
         <v>2017</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H252" t="b">
         <f t="shared" si="3"/>
@@ -8000,22 +8000,22 @@
         <v>42295258</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F253" s="4">
         <v>2017</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H253" t="b">
         <f t="shared" si="3"/>
@@ -8027,22 +8027,22 @@
         <v>90007595</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F254" s="4">
         <v>2017</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H254" t="b">
         <f t="shared" si="3"/>
@@ -8054,22 +8054,22 @@
         <v>49477450</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F255" s="4">
         <v>2017</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H255" t="b">
         <f t="shared" si="3"/>
@@ -8081,22 +8081,22 @@
         <v>72121311</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F256" s="4">
         <v>2017</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H256" t="b">
         <f t="shared" si="3"/>
@@ -8108,22 +8108,22 @@
         <v>52336554</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F257" s="4">
         <v>2017</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H257" t="b">
         <f t="shared" si="3"/>
@@ -8135,22 +8135,22 @@
         <v>85749059</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F258" s="4">
         <v>2017</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H258" t="b">
         <f t="shared" si="3"/>
@@ -8162,22 +8162,22 @@
         <v>45437850</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F259" s="4">
         <v>2017</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H259" t="b">
         <f t="shared" ref="H259:H279" si="4">E259&lt;&gt;"."</f>
@@ -8189,22 +8189,22 @@
         <v>10406007</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F260" s="4">
         <v>2017</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H260" t="b">
         <f t="shared" si="4"/>
@@ -8216,13 +8216,13 @@
         <v>14460805</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>16</v>
@@ -8231,7 +8231,7 @@
         <v>2015</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H261" t="b">
         <f t="shared" si="4"/>
@@ -8243,13 +8243,13 @@
         <v>41275354</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>16</v>
@@ -8258,7 +8258,7 @@
         <v>2015</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H262" t="b">
         <f t="shared" si="4"/>
@@ -8270,13 +8270,13 @@
         <v>78707469</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>16</v>
@@ -8285,7 +8285,7 @@
         <v>2015</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H263" t="b">
         <f t="shared" si="4"/>
@@ -8297,22 +8297,22 @@
         <v>15096631</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F264" s="4">
         <v>2015</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H264" t="b">
         <f t="shared" si="4"/>
@@ -8324,22 +8324,22 @@
         <v>37999576</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F265" s="4">
         <v>2015</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H265" t="b">
         <f t="shared" si="4"/>
@@ -8351,22 +8351,22 @@
         <v>52876136</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F266" s="4">
         <v>2015</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H266" t="b">
         <f t="shared" si="4"/>
@@ -8378,22 +8378,22 @@
         <v>59039468</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F267" s="4">
         <v>2015</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H267" t="b">
         <f t="shared" si="4"/>
@@ -8405,13 +8405,13 @@
         <v>89597745</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>16</v>
@@ -8420,7 +8420,7 @@
         <v>2018</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H268" t="b">
         <f t="shared" si="4"/>
@@ -8432,13 +8432,13 @@
         <v>51153718</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>16</v>
@@ -8447,7 +8447,7 @@
         <v>2018</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H269" t="b">
         <f t="shared" si="4"/>
@@ -8459,13 +8459,13 @@
         <v>79807669</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E270" s="6" t="s">
         <v>16</v>
@@ -8474,7 +8474,7 @@
         <v>2018</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H270" t="b">
         <f t="shared" si="4"/>
@@ -8486,13 +8486,13 @@
         <v>74610514</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E271" s="6" t="s">
         <v>16</v>
@@ -8501,7 +8501,7 @@
         <v>2018</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H271" t="b">
         <f t="shared" si="4"/>
@@ -8513,13 +8513,13 @@
         <v>68180939</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E272" s="6" t="s">
         <v>16</v>
@@ -8528,7 +8528,7 @@
         <v>2018</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H272" t="b">
         <f t="shared" si="4"/>
@@ -8540,13 +8540,13 @@
         <v>78599567</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E273" s="6" t="s">
         <v>16</v>
@@ -8555,7 +8555,7 @@
         <v>2018</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H273" t="b">
         <f t="shared" si="4"/>
@@ -8567,13 +8567,13 @@
         <v>71662980</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E274" s="6" t="s">
         <v>16</v>
@@ -8582,7 +8582,7 @@
         <v>2018</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H274" t="b">
         <f t="shared" si="4"/>
@@ -8594,13 +8594,13 @@
         <v>55340195</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E275" s="6" t="s">
         <v>16</v>
@@ -8609,7 +8609,7 @@
         <v>2018</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H275" t="b">
         <f t="shared" si="4"/>
@@ -8621,22 +8621,22 @@
         <v>39136166</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F276" s="4">
         <v>2015</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H276" t="b">
         <f t="shared" si="4"/>
@@ -8648,22 +8648,22 @@
         <v>31648996</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F277" s="4">
         <v>2015</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H277" t="b">
         <f t="shared" si="4"/>
@@ -8675,22 +8675,22 @@
         <v>21813714</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F278" s="4">
         <v>2015</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H278" t="b">
         <f t="shared" si="4"/>
@@ -8702,22 +8702,22 @@
         <v>2222</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F279" s="10">
         <v>2014</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H279" t="b">
         <f t="shared" si="4"/>

--- a/PP_RRSR_IDspreadsheet.xlsx
+++ b/PP_RRSR_IDspreadsheet.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s167293\Documents\Jaar 5\Q1\HTI research project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zephyr/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70739E5-FBC6-014E-835F-4A65A18AB3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2928"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -545,9 +535,6 @@
     <t>Do Researchers Anchor their Beliefs on the Outcome of an Initial Study? Testing the Time-Reversal Heuristic</t>
   </si>
   <si>
-    <t>In this preregistered study we tested the hypothesis that people anchor on the outcome ofa small initial study, reducing the impact of a larger subsequent study thatcontradicts the initial result.</t>
-  </si>
-  <si>
     <t>Ernst, A. F., Hoekstra, R., Wagenmakers, E.-J., Gelman, A., &amp; van Ravenzwaaij, D.</t>
   </si>
   <si>
@@ -1220,12 +1207,15 @@
   </si>
   <si>
     <t>(i) detection would be better for familiar than unfamiliar faces</t>
+  </si>
+  <si>
+    <t>In this preregistered study we tested the hypothesis that people anchor on the outcome of a small initial study, reducing the impact of a larger subsequent study that contradicts the initial result.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1562,23 +1552,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D253" workbookViewId="0">
-      <selection activeCell="F276" sqref="F276"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="F282" sqref="F282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
     <col min="12" max="12" width="157.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1686,7 +1676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1763,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1791,7 +1781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1798,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1826,7 +1816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1843,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -1861,7 +1851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1896,7 +1886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +1956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2001,7 +1991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2036,7 +2026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2106,7 +2096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2141,7 +2131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2176,7 +2166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2211,7 +2201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2246,7 +2236,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2281,7 +2271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2316,7 +2306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2386,7 +2376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2421,7 +2411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2456,7 +2446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2491,7 +2481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2526,7 +2516,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2561,7 +2551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2596,7 +2586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2631,7 +2621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2666,7 +2656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2701,7 +2691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2736,7 +2726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2771,7 +2761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2806,7 +2796,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2841,7 +2831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2876,7 +2866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -2911,7 +2901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2946,7 +2936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2981,7 +2971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3016,7 +3006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3051,7 +3041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3086,7 +3076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3103,7 +3093,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G44" t="s">
         <v>73</v>
@@ -3121,7 +3111,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3138,7 +3128,7 @@
         <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
         <v>73</v>
@@ -3156,7 +3146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -3173,7 +3163,7 @@
         <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G46" t="s">
         <v>73</v>
@@ -3191,7 +3181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -3208,7 +3198,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G47" t="s">
         <v>73</v>
@@ -3226,7 +3216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3243,7 +3233,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G48" t="s">
         <v>73</v>
@@ -3261,7 +3251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -3296,7 +3286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -3331,7 +3321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -3366,7 +3356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3401,7 +3391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3436,7 +3426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3471,7 +3461,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -3506,7 +3496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -3541,7 +3531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -3576,7 +3566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -3611,7 +3601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -3646,7 +3636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -3681,7 +3671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -3716,7 +3706,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -3751,7 +3741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -3786,7 +3776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -3821,7 +3811,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -3856,7 +3846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -3891,7 +3881,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -3926,7 +3916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -3961,7 +3951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -3996,7 +3986,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -4031,7 +4021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>108</v>
       </c>
@@ -4066,7 +4056,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -4101,7 +4091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -4136,7 +4126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -4171,7 +4161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>113</v>
       </c>
@@ -4206,7 +4196,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -4241,7 +4231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -4276,7 +4266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -4311,7 +4301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -4346,7 +4336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -4381,7 +4371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -4416,7 +4406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -4451,7 +4441,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -4486,7 +4476,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -4521,7 +4511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -4556,7 +4546,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -4591,7 +4581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>125</v>
       </c>
@@ -4626,7 +4616,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -4661,7 +4651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -4696,7 +4686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -4731,7 +4721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -4766,7 +4756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>132</v>
       </c>
@@ -4783,7 +4773,7 @@
         <v>127</v>
       </c>
       <c r="F92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G92" t="s">
         <v>66</v>
@@ -4801,7 +4791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -4818,7 +4808,7 @@
         <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G93" t="s">
         <v>66</v>
@@ -4836,7 +4826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>132</v>
       </c>
@@ -4853,7 +4843,7 @@
         <v>127</v>
       </c>
       <c r="F94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G94" t="s">
         <v>66</v>
@@ -4871,7 +4861,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -4888,7 +4878,7 @@
         <v>127</v>
       </c>
       <c r="F95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G95" t="s">
         <v>66</v>
@@ -4906,7 +4896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -4923,7 +4913,7 @@
         <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G96" t="s">
         <v>138</v>
@@ -4941,7 +4931,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -4958,7 +4948,7 @@
         <v>127</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G97" t="s">
         <v>138</v>
@@ -4976,7 +4966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>136</v>
       </c>
@@ -4993,7 +4983,7 @@
         <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G98" t="s">
         <v>138</v>
@@ -5011,7 +5001,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>136</v>
       </c>
@@ -5028,7 +5018,7 @@
         <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G99" t="s">
         <v>138</v>
@@ -5046,7 +5036,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -5063,7 +5053,7 @@
         <v>127</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G100" t="s">
         <v>138</v>
@@ -5081,7 +5071,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -5116,7 +5106,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -5151,7 +5141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -5186,7 +5176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>148</v>
       </c>
@@ -5221,7 +5211,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -5256,7 +5246,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>148</v>
       </c>
@@ -5291,7 +5281,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>148</v>
       </c>
@@ -5326,7 +5316,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>148</v>
       </c>
@@ -5361,7 +5351,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -5396,7 +5386,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>148</v>
       </c>
@@ -5431,7 +5421,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -5466,7 +5456,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -5501,7 +5491,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>148</v>
       </c>
@@ -5536,7 +5526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>148</v>
       </c>
@@ -5571,7 +5561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -5606,7 +5596,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -5641,7 +5631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -5676,7 +5666,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -5711,7 +5701,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -5746,7 +5736,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -5781,7 +5771,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -5816,7 +5806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>162</v>
       </c>
@@ -5851,7 +5841,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -5886,7 +5876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>162</v>
       </c>
@@ -5921,7 +5911,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>162</v>
       </c>
@@ -5956,7 +5946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -5973,7 +5963,7 @@
         <v>157</v>
       </c>
       <c r="F126" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="G126" t="s">
         <v>66</v>
@@ -5985,13 +5975,13 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
+        <v>170</v>
+      </c>
+      <c r="M126" t="s">
         <v>171</v>
       </c>
-      <c r="M126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -6008,7 +5998,7 @@
         <v>157</v>
       </c>
       <c r="F127" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="G127" t="s">
         <v>66</v>
@@ -6020,13 +6010,13 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
+        <v>170</v>
+      </c>
+      <c r="M127" t="s">
         <v>171</v>
       </c>
-      <c r="M127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -6043,7 +6033,7 @@
         <v>157</v>
       </c>
       <c r="F128" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="G128" t="s">
         <v>66</v>
@@ -6055,13 +6045,13 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
+        <v>170</v>
+      </c>
+      <c r="M128" t="s">
         <v>171</v>
       </c>
-      <c r="M128" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -6078,7 +6068,7 @@
         <v>157</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="G129" t="s">
         <v>66</v>
@@ -6090,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
+        <v>170</v>
+      </c>
+      <c r="M129" t="s">
         <v>171</v>
       </c>
-      <c r="M129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -6113,7 +6103,7 @@
         <v>157</v>
       </c>
       <c r="F130" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="G130" t="s">
         <v>66</v>
@@ -6125,695 +6115,695 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
+        <v>170</v>
+      </c>
+      <c r="M130" t="s">
         <v>171</v>
       </c>
-      <c r="M130" t="s">
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>173</v>
       </c>
       <c r="B131">
         <v>90082915</v>
       </c>
       <c r="C131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131" t="s">
         <v>71</v>
       </c>
       <c r="E131" t="s">
+        <v>174</v>
+      </c>
+      <c r="F131" t="s">
         <v>175</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>176</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
         <v>177</v>
       </c>
-      <c r="H131" t="b">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>178</v>
       </c>
-      <c r="M131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>76762750</v>
       </c>
       <c r="C132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D132" t="s">
         <v>71</v>
       </c>
       <c r="E132" t="s">
+        <v>174</v>
+      </c>
+      <c r="F132" t="s">
         <v>175</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>176</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
         <v>177</v>
       </c>
-      <c r="H132" t="b">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>178</v>
       </c>
-      <c r="M132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>63346271</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
         <v>71</v>
       </c>
       <c r="E133" t="s">
+        <v>174</v>
+      </c>
+      <c r="F133" t="s">
         <v>175</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>176</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
         <v>177</v>
       </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>178</v>
       </c>
-      <c r="M133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>63209803</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D134" t="s">
         <v>71</v>
       </c>
       <c r="E134" t="s">
+        <v>174</v>
+      </c>
+      <c r="F134" t="s">
         <v>175</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>176</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
         <v>177</v>
       </c>
-      <c r="H134" t="b">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>178</v>
       </c>
-      <c r="M134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135">
         <v>73601479</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D135" t="s">
         <v>71</v>
       </c>
       <c r="E135" t="s">
+        <v>174</v>
+      </c>
+      <c r="F135" t="s">
         <v>175</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>176</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
         <v>177</v>
       </c>
-      <c r="H135" t="b">
-        <v>1</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>178</v>
       </c>
-      <c r="M135" t="s">
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>180</v>
       </c>
       <c r="B136">
         <v>94528317</v>
       </c>
       <c r="C136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D136" t="s">
         <v>71</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G136" t="s">
+        <v>181</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
         <v>182</v>
       </c>
-      <c r="H136" t="b">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>183</v>
       </c>
-      <c r="M136" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B137">
         <v>32954649</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D137" t="s">
         <v>71</v>
       </c>
       <c r="E137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G137" t="s">
+        <v>181</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
         <v>182</v>
       </c>
-      <c r="H137" t="b">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>183</v>
       </c>
-      <c r="M137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138">
         <v>75687157</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
         <v>71</v>
       </c>
       <c r="E138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G138" t="s">
+        <v>181</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
         <v>182</v>
       </c>
-      <c r="H138" t="b">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>183</v>
       </c>
-      <c r="M138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>73200578</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D139" t="s">
         <v>71</v>
       </c>
       <c r="E139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G139" t="s">
+        <v>181</v>
+      </c>
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
         <v>182</v>
       </c>
-      <c r="H139" t="b">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>183</v>
       </c>
-      <c r="M139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>28664826</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D140" t="s">
         <v>71</v>
       </c>
       <c r="E140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G140" t="s">
+        <v>181</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
         <v>182</v>
       </c>
-      <c r="H140" t="b">
-        <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>183</v>
       </c>
-      <c r="M140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B141">
         <v>86187444</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D141" t="s">
         <v>71</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F141" t="s">
+        <v>187</v>
+      </c>
+      <c r="G141" t="s">
         <v>188</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
         <v>189</v>
       </c>
-      <c r="H141" t="b">
-        <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>190</v>
       </c>
-      <c r="M141" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B142">
         <v>41247578</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D142" t="s">
         <v>71</v>
       </c>
       <c r="E142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F142" t="s">
+        <v>187</v>
+      </c>
+      <c r="G142" t="s">
         <v>188</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
         <v>189</v>
       </c>
-      <c r="H142" t="b">
-        <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>190</v>
       </c>
-      <c r="M142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B143">
         <v>15335135</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D143" t="s">
         <v>71</v>
       </c>
       <c r="E143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F143" t="s">
+        <v>187</v>
+      </c>
+      <c r="G143" t="s">
         <v>188</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
         <v>189</v>
       </c>
-      <c r="H143" t="b">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>190</v>
       </c>
-      <c r="M143" t="s">
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>192</v>
       </c>
       <c r="B144">
         <v>19706661</v>
       </c>
       <c r="C144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D144" t="s">
         <v>71</v>
       </c>
       <c r="E144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G144" t="s">
+        <v>193</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
         <v>194</v>
       </c>
-      <c r="H144" t="b">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>195</v>
       </c>
-      <c r="M144" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B145">
         <v>41672048</v>
       </c>
       <c r="C145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D145" t="s">
         <v>71</v>
       </c>
       <c r="E145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F145" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G145" t="s">
+        <v>193</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
         <v>194</v>
       </c>
-      <c r="H145" t="b">
-        <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>195</v>
       </c>
-      <c r="M145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B146">
         <v>85134423</v>
       </c>
       <c r="C146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D146" t="s">
         <v>71</v>
       </c>
       <c r="E146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F146" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G146" t="s">
+        <v>193</v>
+      </c>
+      <c r="H146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
         <v>194</v>
       </c>
-      <c r="H146" t="b">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>195</v>
       </c>
-      <c r="M146" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B147">
         <v>56471204</v>
       </c>
       <c r="C147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D147" t="s">
         <v>71</v>
       </c>
       <c r="E147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G147" t="s">
+        <v>193</v>
+      </c>
+      <c r="H147" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
         <v>194</v>
       </c>
-      <c r="H147" t="b">
-        <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>195</v>
       </c>
-      <c r="M147" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B148">
         <v>91085989</v>
       </c>
       <c r="C148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D148" t="s">
         <v>71</v>
       </c>
       <c r="E148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G148" t="s">
+        <v>193</v>
+      </c>
+      <c r="H148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
         <v>194</v>
       </c>
-      <c r="H148" t="b">
-        <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>195</v>
       </c>
-      <c r="M148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B149">
         <v>31738064</v>
       </c>
       <c r="C149" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D149" t="s">
         <v>71</v>
       </c>
       <c r="E149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F149" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G149" t="s">
+        <v>193</v>
+      </c>
+      <c r="H149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
         <v>194</v>
       </c>
-      <c r="H149" t="b">
-        <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>195</v>
       </c>
-      <c r="M149" t="s">
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>197</v>
       </c>
       <c r="B150">
         <v>29822414</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D150" t="s">
         <v>43</v>
       </c>
       <c r="E150" t="s">
+        <v>198</v>
+      </c>
+      <c r="F150" t="s">
         <v>199</v>
-      </c>
-      <c r="F150" t="s">
-        <v>200</v>
       </c>
       <c r="G150" t="s">
         <v>66</v>
@@ -6825,30 +6815,30 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
+        <v>200</v>
+      </c>
+      <c r="M150" t="s">
         <v>201</v>
       </c>
-      <c r="M150" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B151">
         <v>79052158</v>
       </c>
       <c r="C151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D151" t="s">
         <v>43</v>
       </c>
       <c r="E151" t="s">
+        <v>198</v>
+      </c>
+      <c r="F151" t="s">
         <v>199</v>
-      </c>
-      <c r="F151" t="s">
-        <v>200</v>
       </c>
       <c r="G151" t="s">
         <v>66</v>
@@ -6860,30 +6850,30 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
+        <v>200</v>
+      </c>
+      <c r="M151" t="s">
         <v>201</v>
       </c>
-      <c r="M151" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B152">
         <v>93838226</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D152" t="s">
         <v>43</v>
       </c>
       <c r="E152" t="s">
+        <v>198</v>
+      </c>
+      <c r="F152" t="s">
         <v>199</v>
-      </c>
-      <c r="F152" t="s">
-        <v>200</v>
       </c>
       <c r="G152" t="s">
         <v>66</v>
@@ -6895,30 +6885,30 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
+        <v>200</v>
+      </c>
+      <c r="M152" t="s">
         <v>201</v>
       </c>
-      <c r="M152" t="s">
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>203</v>
       </c>
       <c r="B153">
         <v>89597745</v>
       </c>
       <c r="C153" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D153" t="s">
         <v>85</v>
       </c>
       <c r="E153" t="s">
+        <v>204</v>
+      </c>
+      <c r="F153" t="s">
         <v>205</v>
-      </c>
-      <c r="F153" t="s">
-        <v>206</v>
       </c>
       <c r="G153" t="s">
         <v>66</v>
@@ -6930,30 +6920,30 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
+        <v>206</v>
+      </c>
+      <c r="M153" t="s">
         <v>207</v>
       </c>
-      <c r="M153" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B154">
         <v>51153718</v>
       </c>
       <c r="C154" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D154" t="s">
         <v>85</v>
       </c>
       <c r="E154" t="s">
+        <v>204</v>
+      </c>
+      <c r="F154" t="s">
         <v>205</v>
-      </c>
-      <c r="F154" t="s">
-        <v>206</v>
       </c>
       <c r="G154" t="s">
         <v>66</v>
@@ -6965,30 +6955,30 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
+        <v>206</v>
+      </c>
+      <c r="M154" t="s">
         <v>207</v>
       </c>
-      <c r="M154" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B155">
         <v>79807669</v>
       </c>
       <c r="C155" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D155" t="s">
         <v>85</v>
       </c>
       <c r="E155" t="s">
+        <v>204</v>
+      </c>
+      <c r="F155" t="s">
         <v>205</v>
-      </c>
-      <c r="F155" t="s">
-        <v>206</v>
       </c>
       <c r="G155" t="s">
         <v>66</v>
@@ -7000,30 +6990,30 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
+        <v>206</v>
+      </c>
+      <c r="M155" t="s">
         <v>207</v>
       </c>
-      <c r="M155" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B156">
         <v>74610514</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D156" t="s">
         <v>85</v>
       </c>
       <c r="E156" t="s">
+        <v>204</v>
+      </c>
+      <c r="F156" t="s">
         <v>205</v>
-      </c>
-      <c r="F156" t="s">
-        <v>206</v>
       </c>
       <c r="G156" t="s">
         <v>66</v>
@@ -7035,30 +7025,30 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
+        <v>206</v>
+      </c>
+      <c r="M156" t="s">
         <v>207</v>
       </c>
-      <c r="M156" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B157">
         <v>68180939</v>
       </c>
       <c r="C157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D157" t="s">
         <v>85</v>
       </c>
       <c r="E157" t="s">
+        <v>204</v>
+      </c>
+      <c r="F157" t="s">
         <v>205</v>
-      </c>
-      <c r="F157" t="s">
-        <v>206</v>
       </c>
       <c r="G157" t="s">
         <v>66</v>
@@ -7070,30 +7060,30 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
+        <v>206</v>
+      </c>
+      <c r="M157" t="s">
         <v>207</v>
       </c>
-      <c r="M157" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B158">
         <v>78599567</v>
       </c>
       <c r="C158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D158" t="s">
         <v>85</v>
       </c>
       <c r="E158" t="s">
+        <v>204</v>
+      </c>
+      <c r="F158" t="s">
         <v>205</v>
-      </c>
-      <c r="F158" t="s">
-        <v>206</v>
       </c>
       <c r="G158" t="s">
         <v>66</v>
@@ -7105,30 +7095,30 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
+        <v>206</v>
+      </c>
+      <c r="M158" t="s">
         <v>207</v>
       </c>
-      <c r="M158" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B159">
         <v>71662980</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D159" t="s">
         <v>85</v>
       </c>
       <c r="E159" t="s">
+        <v>204</v>
+      </c>
+      <c r="F159" t="s">
         <v>205</v>
-      </c>
-      <c r="F159" t="s">
-        <v>206</v>
       </c>
       <c r="G159" t="s">
         <v>66</v>
@@ -7140,30 +7130,30 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
+        <v>206</v>
+      </c>
+      <c r="M159" t="s">
         <v>207</v>
       </c>
-      <c r="M159" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B160">
         <v>55340195</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D160" t="s">
         <v>85</v>
       </c>
       <c r="E160" t="s">
+        <v>204</v>
+      </c>
+      <c r="F160" t="s">
         <v>205</v>
-      </c>
-      <c r="F160" t="s">
-        <v>206</v>
       </c>
       <c r="G160" t="s">
         <v>66</v>
@@ -7175,30 +7165,30 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
+        <v>206</v>
+      </c>
+      <c r="M160" t="s">
         <v>207</v>
       </c>
-      <c r="M160" t="s">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>209</v>
       </c>
       <c r="B161">
         <v>75616873</v>
       </c>
       <c r="C161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D161" t="s">
         <v>85</v>
       </c>
       <c r="E161" t="s">
+        <v>210</v>
+      </c>
+      <c r="F161" t="s">
         <v>211</v>
-      </c>
-      <c r="F161" t="s">
-        <v>212</v>
       </c>
       <c r="G161" t="s">
         <v>66</v>
@@ -7210,30 +7200,30 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
+        <v>212</v>
+      </c>
+      <c r="M161" t="s">
         <v>213</v>
       </c>
-      <c r="M161" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B162">
         <v>43432223</v>
       </c>
       <c r="C162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D162" t="s">
         <v>85</v>
       </c>
       <c r="E162" t="s">
+        <v>210</v>
+      </c>
+      <c r="F162" t="s">
         <v>211</v>
-      </c>
-      <c r="F162" t="s">
-        <v>212</v>
       </c>
       <c r="G162" t="s">
         <v>66</v>
@@ -7245,30 +7235,30 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
+        <v>212</v>
+      </c>
+      <c r="M162" t="s">
         <v>213</v>
       </c>
-      <c r="M162" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B163">
         <v>20866513</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" t="s">
         <v>22</v>
       </c>
       <c r="E163" t="s">
+        <v>217</v>
+      </c>
+      <c r="F163" t="s">
         <v>218</v>
-      </c>
-      <c r="F163" t="s">
-        <v>219</v>
       </c>
       <c r="G163" t="s">
         <v>66</v>
@@ -7280,30 +7270,30 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
+        <v>219</v>
+      </c>
+      <c r="M163" t="s">
         <v>220</v>
       </c>
-      <c r="M163" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B164">
         <v>70486261</v>
       </c>
       <c r="C164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D164" t="s">
         <v>22</v>
       </c>
       <c r="E164" t="s">
+        <v>217</v>
+      </c>
+      <c r="F164" t="s">
         <v>218</v>
-      </c>
-      <c r="F164" t="s">
-        <v>219</v>
       </c>
       <c r="G164" t="s">
         <v>66</v>
@@ -7315,30 +7305,30 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
+        <v>219</v>
+      </c>
+      <c r="M164" t="s">
         <v>220</v>
       </c>
-      <c r="M164" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B165">
         <v>60099549</v>
       </c>
       <c r="C165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D165" t="s">
         <v>22</v>
       </c>
       <c r="E165" t="s">
+        <v>217</v>
+      </c>
+      <c r="F165" t="s">
         <v>218</v>
-      </c>
-      <c r="F165" t="s">
-        <v>219</v>
       </c>
       <c r="G165" t="s">
         <v>66</v>
@@ -7350,30 +7340,30 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
+        <v>219</v>
+      </c>
+      <c r="M165" t="s">
         <v>220</v>
       </c>
-      <c r="M165" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B166">
         <v>89185431</v>
       </c>
       <c r="C166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D166" t="s">
         <v>22</v>
       </c>
       <c r="E166" t="s">
+        <v>217</v>
+      </c>
+      <c r="F166" t="s">
         <v>218</v>
-      </c>
-      <c r="F166" t="s">
-        <v>219</v>
       </c>
       <c r="G166" t="s">
         <v>66</v>
@@ -7385,30 +7375,30 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
+        <v>219</v>
+      </c>
+      <c r="M166" t="s">
         <v>220</v>
       </c>
-      <c r="M166" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B167">
         <v>57068101</v>
       </c>
       <c r="C167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D167" t="s">
         <v>22</v>
       </c>
       <c r="E167" t="s">
+        <v>217</v>
+      </c>
+      <c r="F167" t="s">
         <v>218</v>
-      </c>
-      <c r="F167" t="s">
-        <v>219</v>
       </c>
       <c r="G167" t="s">
         <v>66</v>
@@ -7420,30 +7410,30 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
+        <v>219</v>
+      </c>
+      <c r="M167" t="s">
         <v>220</v>
       </c>
-      <c r="M167" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B168">
         <v>96683375</v>
       </c>
       <c r="C168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D168" t="s">
         <v>22</v>
       </c>
       <c r="E168" t="s">
+        <v>217</v>
+      </c>
+      <c r="F168" t="s">
         <v>218</v>
-      </c>
-      <c r="F168" t="s">
-        <v>219</v>
       </c>
       <c r="G168" t="s">
         <v>66</v>
@@ -7455,30 +7445,30 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
+        <v>219</v>
+      </c>
+      <c r="M168" t="s">
         <v>220</v>
       </c>
-      <c r="M168" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B169">
         <v>32441364</v>
       </c>
       <c r="C169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D169" t="s">
         <v>22</v>
       </c>
       <c r="E169" t="s">
+        <v>217</v>
+      </c>
+      <c r="F169" t="s">
         <v>218</v>
-      </c>
-      <c r="F169" t="s">
-        <v>219</v>
       </c>
       <c r="G169" t="s">
         <v>66</v>
@@ -7490,30 +7480,30 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
+        <v>219</v>
+      </c>
+      <c r="M169" t="s">
         <v>220</v>
       </c>
-      <c r="M169" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B170">
         <v>36152827</v>
       </c>
       <c r="C170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D170" t="s">
         <v>22</v>
       </c>
       <c r="E170" t="s">
+        <v>217</v>
+      </c>
+      <c r="F170" t="s">
         <v>218</v>
-      </c>
-      <c r="F170" t="s">
-        <v>219</v>
       </c>
       <c r="G170" t="s">
         <v>66</v>
@@ -7525,30 +7515,30 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
+        <v>219</v>
+      </c>
+      <c r="M170" t="s">
         <v>220</v>
       </c>
-      <c r="M170" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B171">
         <v>28041699</v>
       </c>
       <c r="C171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D171" t="s">
         <v>22</v>
       </c>
       <c r="E171" t="s">
+        <v>217</v>
+      </c>
+      <c r="F171" t="s">
         <v>218</v>
-      </c>
-      <c r="F171" t="s">
-        <v>219</v>
       </c>
       <c r="G171" t="s">
         <v>66</v>
@@ -7560,30 +7550,30 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
+        <v>219</v>
+      </c>
+      <c r="M171" t="s">
         <v>220</v>
       </c>
-      <c r="M171" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B172">
         <v>37513495</v>
       </c>
       <c r="C172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D172" t="s">
         <v>22</v>
       </c>
       <c r="E172" t="s">
+        <v>217</v>
+      </c>
+      <c r="F172" t="s">
         <v>218</v>
-      </c>
-      <c r="F172" t="s">
-        <v>219</v>
       </c>
       <c r="G172" t="s">
         <v>66</v>
@@ -7595,30 +7585,30 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
+        <v>219</v>
+      </c>
+      <c r="M172" t="s">
         <v>220</v>
       </c>
-      <c r="M172" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B173">
         <v>31418463</v>
       </c>
       <c r="C173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D173" t="s">
         <v>22</v>
       </c>
       <c r="E173" t="s">
+        <v>217</v>
+      </c>
+      <c r="F173" t="s">
         <v>218</v>
-      </c>
-      <c r="F173" t="s">
-        <v>219</v>
       </c>
       <c r="G173" t="s">
         <v>66</v>
@@ -7630,30 +7620,30 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
+        <v>219</v>
+      </c>
+      <c r="M173" t="s">
         <v>220</v>
       </c>
-      <c r="M173" t="s">
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>222</v>
       </c>
       <c r="B174">
         <v>16714268</v>
       </c>
       <c r="C174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F174" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G174" t="s">
         <v>66</v>
@@ -7665,30 +7655,30 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
+        <v>224</v>
+      </c>
+      <c r="M174" t="s">
         <v>225</v>
       </c>
-      <c r="M174" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B175">
         <v>68480503</v>
       </c>
       <c r="C175" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F175" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G175" t="s">
         <v>66</v>
@@ -7700,30 +7690,30 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
+        <v>224</v>
+      </c>
+      <c r="M175" t="s">
         <v>225</v>
       </c>
-      <c r="M175" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B176">
         <v>95752361</v>
       </c>
       <c r="C176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
       </c>
       <c r="E176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F176" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G176" t="s">
         <v>66</v>
@@ -7735,30 +7725,30 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
+        <v>224</v>
+      </c>
+      <c r="M176" t="s">
         <v>225</v>
       </c>
-      <c r="M176" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B177">
         <v>53422020</v>
       </c>
       <c r="C177" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F177" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G177" t="s">
         <v>66</v>
@@ -7770,30 +7760,30 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
+        <v>224</v>
+      </c>
+      <c r="M177" t="s">
         <v>225</v>
       </c>
-      <c r="M177" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B178">
         <v>98099421</v>
       </c>
       <c r="C178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F178" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G178" t="s">
         <v>66</v>
@@ -7805,30 +7795,30 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
+        <v>224</v>
+      </c>
+      <c r="M178" t="s">
         <v>225</v>
       </c>
-      <c r="M178" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B179">
         <v>30352564</v>
       </c>
       <c r="C179" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
       </c>
       <c r="E179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G179" t="s">
         <v>66</v>
@@ -7840,30 +7830,30 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
+        <v>224</v>
+      </c>
+      <c r="M179" t="s">
         <v>225</v>
       </c>
-      <c r="M179" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B180">
         <v>93094009</v>
       </c>
       <c r="C180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
       </c>
       <c r="E180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F180" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G180" t="s">
         <v>66</v>
@@ -7875,30 +7865,30 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
+        <v>224</v>
+      </c>
+      <c r="M180" t="s">
         <v>225</v>
       </c>
-      <c r="M180" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B181">
         <v>45511772</v>
       </c>
       <c r="C181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G181" t="s">
         <v>66</v>
@@ -7910,30 +7900,30 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
+        <v>224</v>
+      </c>
+      <c r="M181" t="s">
         <v>225</v>
       </c>
-      <c r="M181" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>77791501</v>
       </c>
       <c r="C182" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F182" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G182" t="s">
         <v>66</v>
@@ -7945,30 +7935,30 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
+        <v>224</v>
+      </c>
+      <c r="M182" t="s">
         <v>225</v>
       </c>
-      <c r="M182" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B183">
         <v>93852873</v>
       </c>
       <c r="C183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F183" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G183" t="s">
         <v>66</v>
@@ -7980,30 +7970,30 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
+        <v>224</v>
+      </c>
+      <c r="M183" t="s">
         <v>225</v>
       </c>
-      <c r="M183" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184">
         <v>89621070</v>
       </c>
       <c r="C184" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G184" t="s">
         <v>66</v>
@@ -8015,30 +8005,30 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
+        <v>224</v>
+      </c>
+      <c r="M184" t="s">
         <v>225</v>
       </c>
-      <c r="M184" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B185">
         <v>38748697</v>
       </c>
       <c r="C185" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
       </c>
       <c r="E185" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F185" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G185" t="s">
         <v>66</v>
@@ -8050,170 +8040,170 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
+        <v>224</v>
+      </c>
+      <c r="M185" t="s">
         <v>225</v>
       </c>
-      <c r="M185" t="s">
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>227</v>
       </c>
       <c r="B186">
         <v>98088611</v>
       </c>
       <c r="C186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D186" t="s">
         <v>22</v>
       </c>
       <c r="E186" t="s">
+        <v>228</v>
+      </c>
+      <c r="F186" t="s">
         <v>229</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>230</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="L186" t="s">
         <v>231</v>
       </c>
-      <c r="H186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>232</v>
       </c>
-      <c r="M186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>10309457</v>
       </c>
       <c r="C187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D187" t="s">
         <v>22</v>
       </c>
       <c r="E187" t="s">
+        <v>228</v>
+      </c>
+      <c r="F187" t="s">
         <v>229</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>230</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="b">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="L187" t="s">
         <v>231</v>
       </c>
-      <c r="H187" t="b">
-        <v>1</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>232</v>
       </c>
-      <c r="M187" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B188">
         <v>36320335</v>
       </c>
       <c r="C188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D188" t="s">
         <v>22</v>
       </c>
       <c r="E188" t="s">
+        <v>228</v>
+      </c>
+      <c r="F188" t="s">
         <v>229</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>230</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="b">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="L188" t="s">
         <v>231</v>
       </c>
-      <c r="H188" t="b">
-        <v>1</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>232</v>
       </c>
-      <c r="M188" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189">
         <v>56820950</v>
       </c>
       <c r="C189" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D189" t="s">
         <v>22</v>
       </c>
       <c r="E189" t="s">
+        <v>228</v>
+      </c>
+      <c r="F189" t="s">
         <v>229</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>230</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="b">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="L189" t="s">
         <v>231</v>
       </c>
-      <c r="H189" t="b">
-        <v>1</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
         <v>232</v>
       </c>
-      <c r="M189" t="s">
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>234</v>
       </c>
       <c r="B190">
         <v>33786556</v>
       </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D190" t="s">
         <v>43</v>
       </c>
       <c r="E190" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G190" t="s">
         <v>66</v>
@@ -8225,30 +8215,30 @@
         <v>0</v>
       </c>
       <c r="L190" t="s">
+        <v>236</v>
+      </c>
+      <c r="M190" t="s">
         <v>237</v>
       </c>
-      <c r="M190" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B191">
         <v>63901121</v>
       </c>
       <c r="C191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D191" t="s">
         <v>43</v>
       </c>
       <c r="E191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G191" t="s">
         <v>66</v>
@@ -8260,30 +8250,30 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
+        <v>236</v>
+      </c>
+      <c r="M191" t="s">
         <v>237</v>
       </c>
-      <c r="M191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B192">
         <v>90077954</v>
       </c>
       <c r="C192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D192" t="s">
         <v>43</v>
       </c>
       <c r="E192" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G192" t="s">
         <v>66</v>
@@ -8295,625 +8285,625 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
+        <v>236</v>
+      </c>
+      <c r="M192" t="s">
         <v>237</v>
       </c>
-      <c r="M192" t="s">
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>239</v>
       </c>
       <c r="B193">
         <v>56394266</v>
       </c>
       <c r="C193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D193" t="s">
         <v>29</v>
       </c>
       <c r="E193" t="s">
+        <v>240</v>
+      </c>
+      <c r="F193" t="s">
+        <v>386</v>
+      </c>
+      <c r="G193" t="s">
         <v>241</v>
       </c>
-      <c r="F193" t="s">
-        <v>387</v>
-      </c>
-      <c r="G193" t="s">
+      <c r="H193" t="b">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
         <v>242</v>
       </c>
-      <c r="H193" t="b">
-        <v>1</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>243</v>
       </c>
-      <c r="M193" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B194">
         <v>85616382</v>
       </c>
       <c r="C194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D194" t="s">
         <v>29</v>
       </c>
       <c r="E194" t="s">
+        <v>240</v>
+      </c>
+      <c r="F194" t="s">
+        <v>386</v>
+      </c>
+      <c r="G194" t="s">
         <v>241</v>
       </c>
-      <c r="F194" t="s">
-        <v>387</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="b">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="L194" t="s">
         <v>242</v>
       </c>
-      <c r="H194" t="b">
-        <v>1</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
         <v>243</v>
       </c>
-      <c r="M194" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B195">
         <v>16287688</v>
       </c>
       <c r="C195" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
       </c>
       <c r="E195" t="s">
+        <v>240</v>
+      </c>
+      <c r="F195" t="s">
+        <v>386</v>
+      </c>
+      <c r="G195" t="s">
         <v>241</v>
       </c>
-      <c r="F195" t="s">
-        <v>387</v>
-      </c>
-      <c r="G195" t="s">
+      <c r="H195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="L195" t="s">
         <v>242</v>
       </c>
-      <c r="H195" t="b">
-        <v>1</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="L195" t="s">
+      <c r="M195" t="s">
         <v>243</v>
       </c>
-      <c r="M195" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B196">
         <v>32016923</v>
       </c>
       <c r="C196" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D196" t="s">
         <v>29</v>
       </c>
       <c r="E196" t="s">
+        <v>240</v>
+      </c>
+      <c r="F196" t="s">
+        <v>386</v>
+      </c>
+      <c r="G196" t="s">
         <v>241</v>
       </c>
-      <c r="F196" t="s">
-        <v>387</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="H196" t="b">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="L196" t="s">
         <v>242</v>
       </c>
-      <c r="H196" t="b">
-        <v>1</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>243</v>
       </c>
-      <c r="M196" t="s">
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>245</v>
       </c>
       <c r="B197">
         <v>21377527</v>
       </c>
       <c r="C197" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D197" t="s">
         <v>71</v>
       </c>
       <c r="E197" t="s">
+        <v>246</v>
+      </c>
+      <c r="F197" t="s">
         <v>247</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>248</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="b">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="L197" t="s">
         <v>249</v>
       </c>
-      <c r="H197" t="b">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>250</v>
       </c>
-      <c r="M197" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B198">
         <v>21362730</v>
       </c>
       <c r="C198" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D198" t="s">
         <v>71</v>
       </c>
       <c r="E198" t="s">
+        <v>246</v>
+      </c>
+      <c r="F198" t="s">
         <v>247</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>248</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="b">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="L198" t="s">
         <v>249</v>
       </c>
-      <c r="H198" t="b">
-        <v>1</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>250</v>
       </c>
-      <c r="M198" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B199">
         <v>83162147</v>
       </c>
       <c r="C199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D199" t="s">
         <v>71</v>
       </c>
       <c r="E199" t="s">
+        <v>246</v>
+      </c>
+      <c r="F199" t="s">
         <v>247</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>248</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="b">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="L199" t="s">
         <v>249</v>
       </c>
-      <c r="H199" t="b">
-        <v>1</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>250</v>
       </c>
-      <c r="M199" t="s">
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>252</v>
       </c>
       <c r="B200">
         <v>74832042</v>
       </c>
       <c r="C200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D200" t="s">
         <v>43</v>
       </c>
       <c r="E200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F200" t="s">
+        <v>253</v>
+      </c>
+      <c r="G200" t="s">
         <v>254</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="b">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="L200" t="s">
         <v>255</v>
       </c>
-      <c r="H200" t="b">
-        <v>1</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>256</v>
       </c>
-      <c r="M200" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B201">
         <v>59067286</v>
       </c>
       <c r="C201" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D201" t="s">
         <v>43</v>
       </c>
       <c r="E201" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F201" t="s">
+        <v>253</v>
+      </c>
+      <c r="G201" t="s">
         <v>254</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="b">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="L201" t="s">
         <v>255</v>
       </c>
-      <c r="H201" t="b">
-        <v>1</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>256</v>
       </c>
-      <c r="M201" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B202">
         <v>60840024</v>
       </c>
       <c r="C202" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D202" t="s">
         <v>43</v>
       </c>
       <c r="E202" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F202" t="s">
+        <v>253</v>
+      </c>
+      <c r="G202" t="s">
         <v>254</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="b">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="L202" t="s">
         <v>255</v>
       </c>
-      <c r="H202" t="b">
-        <v>1</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>256</v>
       </c>
-      <c r="M202" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B203">
         <v>54012179</v>
       </c>
       <c r="C203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D203" t="s">
         <v>43</v>
       </c>
       <c r="E203" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F203" t="s">
+        <v>253</v>
+      </c>
+      <c r="G203" t="s">
         <v>254</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="b">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="L203" t="s">
         <v>255</v>
       </c>
-      <c r="H203" t="b">
-        <v>1</v>
-      </c>
-      <c r="I203">
-        <v>1</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>256</v>
       </c>
-      <c r="M203" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B204">
         <v>44183526</v>
       </c>
       <c r="C204" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D204" t="s">
         <v>43</v>
       </c>
       <c r="E204" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F204" t="s">
+        <v>253</v>
+      </c>
+      <c r="G204" t="s">
         <v>254</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="b">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="L204" t="s">
         <v>255</v>
       </c>
-      <c r="H204" t="b">
-        <v>1</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>256</v>
       </c>
-      <c r="M204" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B205">
         <v>83715589</v>
       </c>
       <c r="C205" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D205" t="s">
         <v>43</v>
       </c>
       <c r="E205" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F205" t="s">
+        <v>253</v>
+      </c>
+      <c r="G205" t="s">
         <v>254</v>
       </c>
-      <c r="G205" t="s">
+      <c r="H205" t="b">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="L205" t="s">
         <v>255</v>
       </c>
-      <c r="H205" t="b">
-        <v>1</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="L205" t="s">
+      <c r="M205" t="s">
         <v>256</v>
       </c>
-      <c r="M205" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B206">
         <v>46540188</v>
       </c>
       <c r="C206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D206" t="s">
         <v>43</v>
       </c>
       <c r="E206" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F206" t="s">
+        <v>253</v>
+      </c>
+      <c r="G206" t="s">
         <v>254</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="b">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="L206" t="s">
         <v>255</v>
       </c>
-      <c r="H206" t="b">
-        <v>1</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>256</v>
       </c>
-      <c r="M206" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B207">
         <v>23202663</v>
       </c>
       <c r="C207" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D207" t="s">
         <v>43</v>
       </c>
       <c r="E207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F207" t="s">
+        <v>253</v>
+      </c>
+      <c r="G207" t="s">
         <v>254</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="b">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="L207" t="s">
         <v>255</v>
       </c>
-      <c r="H207" t="b">
-        <v>1</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>256</v>
       </c>
-      <c r="M207" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B208">
         <v>65124289</v>
       </c>
       <c r="C208" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D208" t="s">
         <v>43</v>
       </c>
       <c r="E208" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F208" t="s">
+        <v>253</v>
+      </c>
+      <c r="G208" t="s">
         <v>254</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="b">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="L208" t="s">
         <v>255</v>
       </c>
-      <c r="H208" t="b">
-        <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>256</v>
       </c>
-      <c r="M208" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B209">
         <v>34890007</v>
       </c>
       <c r="C209" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D209" t="s">
         <v>43</v>
       </c>
       <c r="E209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F209" t="s">
+        <v>253</v>
+      </c>
+      <c r="G209" t="s">
         <v>254</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="b">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
         <v>255</v>
       </c>
-      <c r="H209" t="b">
-        <v>1</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
         <v>256</v>
       </c>
-      <c r="M209" t="s">
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>258</v>
       </c>
       <c r="B210">
         <v>34216047</v>
       </c>
       <c r="C210" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D210" t="s">
         <v>43</v>
       </c>
       <c r="E210" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G210" t="s">
         <v>66</v>
@@ -8925,30 +8915,30 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
+        <v>259</v>
+      </c>
+      <c r="M210" t="s">
         <v>260</v>
       </c>
-      <c r="M210" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B211">
         <v>41576289</v>
       </c>
       <c r="C211" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D211" t="s">
         <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F211" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G211" t="s">
         <v>66</v>
@@ -8960,30 +8950,30 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
+        <v>259</v>
+      </c>
+      <c r="M211" t="s">
         <v>260</v>
       </c>
-      <c r="M211" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B212">
         <v>14312202</v>
       </c>
       <c r="C212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D212" t="s">
         <v>43</v>
       </c>
       <c r="E212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G212" t="s">
         <v>66</v>
@@ -8995,205 +8985,205 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
+        <v>259</v>
+      </c>
+      <c r="M212" t="s">
         <v>260</v>
       </c>
-      <c r="M212" t="s">
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>262</v>
       </c>
       <c r="B213">
         <v>44412046</v>
       </c>
       <c r="C213" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D213" t="s">
         <v>71</v>
       </c>
       <c r="E213" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G213" t="s">
+        <v>263</v>
+      </c>
+      <c r="H213" t="b">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="L213" t="s">
         <v>264</v>
       </c>
-      <c r="H213" t="b">
-        <v>1</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="L213" t="s">
+      <c r="M213" t="s">
         <v>265</v>
       </c>
-      <c r="M213" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B214">
         <v>85857289</v>
       </c>
       <c r="C214" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D214" t="s">
         <v>71</v>
       </c>
       <c r="E214" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G214" t="s">
+        <v>263</v>
+      </c>
+      <c r="H214" t="b">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="L214" t="s">
         <v>264</v>
       </c>
-      <c r="H214" t="b">
-        <v>1</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="L214" t="s">
+      <c r="M214" t="s">
         <v>265</v>
       </c>
-      <c r="M214" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B215">
         <v>79408767</v>
       </c>
       <c r="C215" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D215" t="s">
         <v>71</v>
       </c>
       <c r="E215" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G215" t="s">
+        <v>263</v>
+      </c>
+      <c r="H215" t="b">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="L215" t="s">
         <v>264</v>
       </c>
-      <c r="H215" t="b">
-        <v>1</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>265</v>
       </c>
-      <c r="M215" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B216">
         <v>64314769</v>
       </c>
       <c r="C216" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D216" t="s">
         <v>71</v>
       </c>
       <c r="E216" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G216" t="s">
+        <v>263</v>
+      </c>
+      <c r="H216" t="b">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="L216" t="s">
         <v>264</v>
       </c>
-      <c r="H216" t="b">
-        <v>1</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
         <v>265</v>
       </c>
-      <c r="M216" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B217">
         <v>51317424</v>
       </c>
       <c r="C217" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D217" t="s">
         <v>71</v>
       </c>
       <c r="E217" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G217" t="s">
+        <v>263</v>
+      </c>
+      <c r="H217" t="b">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="L217" t="s">
         <v>264</v>
       </c>
-      <c r="H217" t="b">
-        <v>1</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
         <v>265</v>
       </c>
-      <c r="M217" t="s">
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>267</v>
       </c>
       <c r="B218">
         <v>88133098</v>
       </c>
       <c r="C218" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D218" t="s">
         <v>71</v>
       </c>
       <c r="E218" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G218" t="s">
         <v>66</v>
@@ -9205,30 +9195,30 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
+        <v>268</v>
+      </c>
+      <c r="M218" t="s">
         <v>269</v>
       </c>
-      <c r="M218" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B219">
         <v>37926518</v>
       </c>
       <c r="C219" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D219" t="s">
         <v>71</v>
       </c>
       <c r="E219" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G219" t="s">
         <v>66</v>
@@ -9240,30 +9230,30 @@
         <v>0</v>
       </c>
       <c r="L219" t="s">
+        <v>268</v>
+      </c>
+      <c r="M219" t="s">
         <v>269</v>
       </c>
-      <c r="M219" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B220">
         <v>89789803</v>
       </c>
       <c r="C220" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D220" t="s">
         <v>71</v>
       </c>
       <c r="E220" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G220" t="s">
         <v>66</v>
@@ -9275,310 +9265,310 @@
         <v>0</v>
       </c>
       <c r="L220" t="s">
+        <v>268</v>
+      </c>
+      <c r="M220" t="s">
         <v>269</v>
       </c>
-      <c r="M220" t="s">
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>271</v>
       </c>
       <c r="B221">
         <v>50471704</v>
       </c>
       <c r="C221" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D221" t="s">
         <v>71</v>
       </c>
       <c r="E221" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F221" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G221" t="s">
+        <v>272</v>
+      </c>
+      <c r="H221" t="b">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="L221" t="s">
         <v>273</v>
       </c>
-      <c r="H221" t="b">
-        <v>1</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
         <v>274</v>
       </c>
-      <c r="M221" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B222">
         <v>62890900</v>
       </c>
       <c r="C222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D222" t="s">
         <v>71</v>
       </c>
       <c r="E222" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F222" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G222" t="s">
+        <v>272</v>
+      </c>
+      <c r="H222" t="b">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="L222" t="s">
         <v>273</v>
       </c>
-      <c r="H222" t="b">
-        <v>1</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>274</v>
       </c>
-      <c r="M222" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B223">
         <v>26577220</v>
       </c>
       <c r="C223" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D223" t="s">
         <v>71</v>
       </c>
       <c r="E223" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F223" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G223" t="s">
+        <v>272</v>
+      </c>
+      <c r="H223" t="b">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="L223" t="s">
         <v>273</v>
       </c>
-      <c r="H223" t="b">
-        <v>1</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
         <v>274</v>
       </c>
-      <c r="M223" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B224">
         <v>63208023</v>
       </c>
       <c r="C224" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D224" t="s">
         <v>71</v>
       </c>
       <c r="E224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F224" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G224" t="s">
+        <v>272</v>
+      </c>
+      <c r="H224" t="b">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="L224" t="s">
         <v>273</v>
       </c>
-      <c r="H224" t="b">
-        <v>1</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>274</v>
       </c>
-      <c r="M224" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B225">
         <v>52979733</v>
       </c>
       <c r="C225" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D225" t="s">
         <v>71</v>
       </c>
       <c r="E225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F225" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G225" t="s">
+        <v>272</v>
+      </c>
+      <c r="H225" t="b">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="L225" t="s">
         <v>273</v>
       </c>
-      <c r="H225" t="b">
-        <v>1</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
         <v>274</v>
       </c>
-      <c r="M225" t="s">
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>276</v>
       </c>
       <c r="B226">
         <v>75903843</v>
       </c>
       <c r="C226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D226" t="s">
         <v>71</v>
       </c>
       <c r="E226" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F226" t="s">
+        <v>277</v>
+      </c>
+      <c r="G226" t="s">
         <v>278</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="b">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="L226" t="s">
         <v>279</v>
       </c>
-      <c r="H226" t="b">
-        <v>1</v>
-      </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
         <v>280</v>
       </c>
-      <c r="M226" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B227">
         <v>60631618</v>
       </c>
       <c r="C227" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D227" t="s">
         <v>71</v>
       </c>
       <c r="E227" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F227" t="s">
+        <v>277</v>
+      </c>
+      <c r="G227" t="s">
         <v>278</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="b">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="L227" t="s">
         <v>279</v>
       </c>
-      <c r="H227" t="b">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
         <v>280</v>
       </c>
-      <c r="M227" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B228">
         <v>57371585</v>
       </c>
       <c r="C228" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D228" t="s">
         <v>71</v>
       </c>
       <c r="E228" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F228" t="s">
+        <v>277</v>
+      </c>
+      <c r="G228" t="s">
         <v>278</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="b">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="L228" t="s">
         <v>279</v>
       </c>
-      <c r="H228" t="b">
-        <v>1</v>
-      </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>280</v>
       </c>
-      <c r="M228" t="s">
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>282</v>
       </c>
       <c r="B229">
         <v>89270001</v>
       </c>
       <c r="C229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D229" t="s">
         <v>71</v>
       </c>
       <c r="E229" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G229" t="s">
         <v>66</v>
@@ -9590,30 +9580,30 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
+        <v>284</v>
+      </c>
+      <c r="M229" t="s">
         <v>285</v>
       </c>
-      <c r="M229" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B230">
         <v>77295838</v>
       </c>
       <c r="C230" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D230" t="s">
         <v>71</v>
       </c>
       <c r="E230" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F230" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G230" t="s">
         <v>66</v>
@@ -9625,170 +9615,170 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
+        <v>284</v>
+      </c>
+      <c r="M230" t="s">
         <v>285</v>
       </c>
-      <c r="M230" t="s">
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>287</v>
       </c>
       <c r="B231">
         <v>83407042</v>
       </c>
       <c r="C231" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D231" t="s">
         <v>85</v>
       </c>
       <c r="E231" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F231" t="s">
+        <v>288</v>
+      </c>
+      <c r="G231" t="s">
         <v>289</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="b">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="L231" t="s">
         <v>290</v>
       </c>
-      <c r="H231" t="b">
-        <v>1</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>291</v>
       </c>
-      <c r="M231" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B232">
         <v>91376109</v>
       </c>
       <c r="C232" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D232" t="s">
         <v>85</v>
       </c>
       <c r="E232" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F232" t="s">
+        <v>288</v>
+      </c>
+      <c r="G232" t="s">
         <v>289</v>
       </c>
-      <c r="G232" t="s">
+      <c r="H232" t="b">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="L232" t="s">
         <v>290</v>
       </c>
-      <c r="H232" t="b">
-        <v>1</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="L232" t="s">
+      <c r="M232" t="s">
         <v>291</v>
       </c>
-      <c r="M232" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B233">
         <v>69776508</v>
       </c>
       <c r="C233" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D233" t="s">
         <v>85</v>
       </c>
       <c r="E233" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F233" t="s">
+        <v>288</v>
+      </c>
+      <c r="G233" t="s">
         <v>289</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="b">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="L233" t="s">
         <v>290</v>
       </c>
-      <c r="H233" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="L233" t="s">
+      <c r="M233" t="s">
         <v>291</v>
       </c>
-      <c r="M233" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B234">
         <v>60635819</v>
       </c>
       <c r="C234" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D234" t="s">
         <v>85</v>
       </c>
       <c r="E234" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F234" t="s">
+        <v>288</v>
+      </c>
+      <c r="G234" t="s">
         <v>289</v>
       </c>
-      <c r="G234" t="s">
+      <c r="H234" t="b">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="L234" t="s">
         <v>290</v>
       </c>
-      <c r="H234" t="b">
-        <v>1</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>291</v>
       </c>
-      <c r="M234" t="s">
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>293</v>
       </c>
       <c r="B235">
         <v>84953314</v>
       </c>
       <c r="C235" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D235" t="s">
         <v>85</v>
       </c>
       <c r="E235" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F235" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G235" t="s">
         <v>66</v>
@@ -9800,30 +9790,30 @@
         <v>0</v>
       </c>
       <c r="L235" t="s">
+        <v>295</v>
+      </c>
+      <c r="M235" t="s">
         <v>296</v>
       </c>
-      <c r="M235" t="s">
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>298</v>
       </c>
       <c r="B236">
         <v>40242820</v>
       </c>
       <c r="C236" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D236" t="s">
         <v>71</v>
       </c>
       <c r="E236" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F236" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G236" t="s">
         <v>66</v>
@@ -9835,30 +9825,30 @@
         <v>0</v>
       </c>
       <c r="L236" t="s">
+        <v>300</v>
+      </c>
+      <c r="M236" t="s">
         <v>301</v>
       </c>
-      <c r="M236" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B237">
         <v>64090661</v>
       </c>
       <c r="C237" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D237" t="s">
         <v>71</v>
       </c>
       <c r="E237" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G237" t="s">
         <v>66</v>
@@ -9870,30 +9860,30 @@
         <v>0</v>
       </c>
       <c r="L237" t="s">
+        <v>300</v>
+      </c>
+      <c r="M237" t="s">
         <v>301</v>
       </c>
-      <c r="M237" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B238">
         <v>49024150</v>
       </c>
       <c r="C238" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D238" t="s">
         <v>71</v>
       </c>
       <c r="E238" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F238" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G238" t="s">
         <v>66</v>
@@ -9905,453 +9895,453 @@
         <v>0</v>
       </c>
       <c r="L238" t="s">
+        <v>300</v>
+      </c>
+      <c r="M238" t="s">
         <v>301</v>
       </c>
-      <c r="M238" t="s">
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>303</v>
       </c>
       <c r="B239">
         <v>82786031</v>
       </c>
       <c r="C239" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D239" t="s">
         <v>85</v>
       </c>
       <c r="E239" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F239" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G239" t="s">
+        <v>304</v>
+      </c>
+      <c r="H239" t="b">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="L239" t="s">
         <v>305</v>
       </c>
-      <c r="H239" t="b">
-        <v>1</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="L239" t="s">
+      <c r="M239" t="s">
         <v>306</v>
       </c>
-      <c r="M239" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B240">
         <v>50345472</v>
       </c>
       <c r="C240" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D240" t="s">
         <v>85</v>
       </c>
       <c r="E240" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F240" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G240" t="s">
+        <v>304</v>
+      </c>
+      <c r="H240" t="b">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="L240" t="s">
         <v>305</v>
       </c>
-      <c r="H240" t="b">
-        <v>1</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="L240" t="s">
+      <c r="M240" t="s">
         <v>306</v>
       </c>
-      <c r="M240" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B241">
         <v>77334592</v>
       </c>
       <c r="C241" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D241" t="s">
         <v>85</v>
       </c>
       <c r="E241" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F241" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G241" t="s">
+        <v>304</v>
+      </c>
+      <c r="H241" t="b">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="L241" t="s">
         <v>305</v>
       </c>
-      <c r="H241" t="b">
-        <v>1</v>
-      </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
-      <c r="L241" t="s">
+      <c r="M241" t="s">
         <v>306</v>
       </c>
-      <c r="M241" t="s">
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>308</v>
       </c>
       <c r="B242">
         <v>96078450</v>
       </c>
       <c r="C242" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D242" t="s">
         <v>85</v>
       </c>
       <c r="E242" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G242" t="s">
+        <v>309</v>
+      </c>
+      <c r="H242" t="b">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="L242" t="s">
         <v>310</v>
       </c>
-      <c r="H242" t="b">
-        <v>1</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
-      <c r="L242" t="s">
+      <c r="M242" t="s">
         <v>311</v>
       </c>
-      <c r="M242" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B243">
         <v>47465456</v>
       </c>
       <c r="C243" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D243" t="s">
         <v>85</v>
       </c>
       <c r="E243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G243" t="s">
+        <v>309</v>
+      </c>
+      <c r="H243" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="L243" t="s">
         <v>310</v>
       </c>
-      <c r="H243" t="b">
-        <v>1</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-      <c r="L243" t="s">
+      <c r="M243" t="s">
         <v>311</v>
       </c>
-      <c r="M243" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B244">
         <v>55403086</v>
       </c>
       <c r="C244" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D244" t="s">
         <v>85</v>
       </c>
       <c r="E244" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G244" t="s">
+        <v>309</v>
+      </c>
+      <c r="H244" t="b">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="L244" t="s">
         <v>310</v>
       </c>
-      <c r="H244" t="b">
-        <v>1</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>311</v>
       </c>
-      <c r="M244" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B245">
         <v>22822147</v>
       </c>
       <c r="C245" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D245" t="s">
         <v>85</v>
       </c>
       <c r="E245" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G245" t="s">
+        <v>309</v>
+      </c>
+      <c r="H245" t="b">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="L245" t="s">
         <v>310</v>
       </c>
-      <c r="H245" t="b">
-        <v>1</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="L245" t="s">
+      <c r="M245" t="s">
         <v>311</v>
       </c>
-      <c r="M245" t="s">
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>313</v>
       </c>
       <c r="B246">
         <v>81225118</v>
       </c>
       <c r="C246" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
       </c>
       <c r="E246" t="s">
+        <v>314</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G246" t="s">
         <v>315</v>
       </c>
-      <c r="F246" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G246" t="s">
+      <c r="H246" t="b">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="L246" t="s">
         <v>316</v>
       </c>
-      <c r="H246" t="b">
-        <v>1</v>
-      </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-      <c r="L246" t="s">
+      <c r="M246" t="s">
         <v>317</v>
       </c>
-      <c r="M246" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B247">
         <v>82443575</v>
       </c>
       <c r="C247" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247" t="s">
+        <v>314</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G247" t="s">
         <v>315</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G247" t="s">
+      <c r="H247" t="b">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="L247" t="s">
         <v>316</v>
       </c>
-      <c r="H247" t="b">
-        <v>1</v>
-      </c>
-      <c r="I247">
-        <v>1</v>
-      </c>
-      <c r="L247" t="s">
+      <c r="M247" t="s">
         <v>317</v>
       </c>
-      <c r="M247" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B248">
         <v>43116652</v>
       </c>
       <c r="C248" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248" t="s">
+        <v>314</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G248" t="s">
         <v>315</v>
       </c>
-      <c r="F248" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="H248" t="b">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="L248" t="s">
         <v>316</v>
       </c>
-      <c r="H248" t="b">
-        <v>1</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="L248" t="s">
+      <c r="M248" t="s">
         <v>317</v>
       </c>
-      <c r="M248" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B249">
         <v>90098528</v>
       </c>
       <c r="C249" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D249" t="s">
         <v>29</v>
       </c>
       <c r="E249" t="s">
+        <v>314</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G249" t="s">
         <v>315</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G249" t="s">
+      <c r="H249" t="b">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="L249" t="s">
         <v>316</v>
       </c>
-      <c r="H249" t="b">
-        <v>1</v>
-      </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-      <c r="L249" t="s">
+      <c r="M249" t="s">
         <v>317</v>
       </c>
-      <c r="M249" t="s">
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>319</v>
       </c>
       <c r="B250">
         <v>2222</v>
       </c>
       <c r="C250" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D250" t="s">
         <v>22</v>
       </c>
       <c r="E250" t="s">
+        <v>320</v>
+      </c>
+      <c r="F250" t="s">
         <v>321</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>322</v>
       </c>
-      <c r="G250" t="s">
+      <c r="H250" t="b">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250" t="s">
         <v>323</v>
       </c>
-      <c r="H250" t="b">
-        <v>1</v>
-      </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="J250" t="s">
+      <c r="L250" t="s">
         <v>324</v>
       </c>
-      <c r="L250" t="s">
+      <c r="M250" t="s">
         <v>325</v>
       </c>
-      <c r="M250" t="s">
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>327</v>
       </c>
       <c r="B251">
         <v>45345128</v>
       </c>
       <c r="C251" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D251" t="s">
         <v>14</v>
       </c>
       <c r="E251" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F251" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G251" t="s">
         <v>66</v>
@@ -10363,30 +10353,30 @@
         <v>0</v>
       </c>
       <c r="L251" t="s">
+        <v>328</v>
+      </c>
+      <c r="M251" t="s">
         <v>329</v>
       </c>
-      <c r="M251" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B252">
         <v>37777690</v>
       </c>
       <c r="C252" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D252" t="s">
         <v>14</v>
       </c>
       <c r="E252" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F252" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G252" t="s">
         <v>66</v>
@@ -10398,30 +10388,30 @@
         <v>0</v>
       </c>
       <c r="L252" t="s">
+        <v>328</v>
+      </c>
+      <c r="M252" t="s">
         <v>329</v>
       </c>
-      <c r="M252" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B253">
         <v>23400789</v>
       </c>
       <c r="C253" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D253" t="s">
         <v>14</v>
       </c>
       <c r="E253" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F253" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G253" t="s">
         <v>66</v>
@@ -10433,30 +10423,30 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
+        <v>328</v>
+      </c>
+      <c r="M253" t="s">
         <v>329</v>
       </c>
-      <c r="M253" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B254">
         <v>93103432</v>
       </c>
       <c r="C254" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D254" t="s">
         <v>14</v>
       </c>
       <c r="E254" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F254" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G254" t="s">
         <v>66</v>
@@ -10468,888 +10458,888 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
+        <v>328</v>
+      </c>
+      <c r="M254" t="s">
         <v>329</v>
       </c>
-      <c r="M254" t="s">
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>331</v>
       </c>
       <c r="B255">
         <v>26352526</v>
       </c>
       <c r="C255" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D255" t="s">
         <v>85</v>
       </c>
       <c r="E255" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F255" t="s">
+        <v>332</v>
+      </c>
+      <c r="G255" t="s">
         <v>333</v>
       </c>
-      <c r="G255" t="s">
+      <c r="H255" t="b">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="L255" t="s">
         <v>334</v>
       </c>
-      <c r="H255" t="b">
-        <v>1</v>
-      </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="L255" t="s">
+      <c r="M255" t="s">
         <v>335</v>
       </c>
-      <c r="M255" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B256">
         <v>35596743</v>
       </c>
       <c r="C256" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D256" t="s">
         <v>85</v>
       </c>
       <c r="E256" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F256" t="s">
+        <v>332</v>
+      </c>
+      <c r="G256" t="s">
         <v>333</v>
       </c>
-      <c r="G256" t="s">
+      <c r="H256" t="b">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="L256" t="s">
         <v>334</v>
       </c>
-      <c r="H256" t="b">
-        <v>1</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="L256" t="s">
+      <c r="M256" t="s">
         <v>335</v>
       </c>
-      <c r="M256" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B257">
         <v>22073028</v>
       </c>
       <c r="C257" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D257" t="s">
         <v>85</v>
       </c>
       <c r="E257" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F257" t="s">
+        <v>332</v>
+      </c>
+      <c r="G257" t="s">
         <v>333</v>
       </c>
-      <c r="G257" t="s">
+      <c r="H257" t="b">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="L257" t="s">
         <v>334</v>
       </c>
-      <c r="H257" t="b">
-        <v>1</v>
-      </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
         <v>335</v>
       </c>
-      <c r="M257" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B258">
         <v>45837677</v>
       </c>
       <c r="C258" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D258" t="s">
         <v>85</v>
       </c>
       <c r="E258" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F258" t="s">
+        <v>332</v>
+      </c>
+      <c r="G258" t="s">
         <v>333</v>
       </c>
-      <c r="G258" t="s">
+      <c r="H258" t="b">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="L258" t="s">
         <v>334</v>
       </c>
-      <c r="H258" t="b">
-        <v>1</v>
-      </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-      <c r="L258" t="s">
+      <c r="M258" t="s">
         <v>335</v>
       </c>
-      <c r="M258" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B259">
         <v>82050200</v>
       </c>
       <c r="C259" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D259" t="s">
         <v>85</v>
       </c>
       <c r="E259" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F259" t="s">
+        <v>332</v>
+      </c>
+      <c r="G259" t="s">
         <v>333</v>
       </c>
-      <c r="G259" t="s">
+      <c r="H259" t="b">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="L259" t="s">
         <v>334</v>
       </c>
-      <c r="H259" t="b">
-        <v>1</v>
-      </c>
-      <c r="I259">
-        <v>0</v>
-      </c>
-      <c r="L259" t="s">
+      <c r="M259" t="s">
         <v>335</v>
       </c>
-      <c r="M259" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B260">
         <v>30741184</v>
       </c>
       <c r="C260" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D260" t="s">
         <v>85</v>
       </c>
       <c r="E260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F260" t="s">
+        <v>332</v>
+      </c>
+      <c r="G260" t="s">
         <v>333</v>
       </c>
-      <c r="G260" t="s">
+      <c r="H260" t="b">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="L260" t="s">
         <v>334</v>
       </c>
-      <c r="H260" t="b">
-        <v>1</v>
-      </c>
-      <c r="I260">
-        <v>0</v>
-      </c>
-      <c r="L260" t="s">
+      <c r="M260" t="s">
         <v>335</v>
       </c>
-      <c r="M260" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B261">
         <v>23596356</v>
       </c>
       <c r="C261" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D261" t="s">
         <v>85</v>
       </c>
       <c r="E261" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F261" t="s">
+        <v>332</v>
+      </c>
+      <c r="G261" t="s">
         <v>333</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="b">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="L261" t="s">
         <v>334</v>
       </c>
-      <c r="H261" t="b">
-        <v>1</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="L261" t="s">
+      <c r="M261" t="s">
         <v>335</v>
       </c>
-      <c r="M261" t="s">
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>337</v>
       </c>
       <c r="B262">
         <v>11654950</v>
       </c>
       <c r="C262" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D262" t="s">
         <v>14</v>
       </c>
       <c r="E262" t="s">
+        <v>338</v>
+      </c>
+      <c r="F262" t="s">
         <v>339</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>340</v>
       </c>
-      <c r="G262" t="s">
+      <c r="H262" t="b">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="L262" t="s">
         <v>341</v>
       </c>
-      <c r="H262" t="b">
-        <v>1</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
         <v>342</v>
       </c>
-      <c r="M262" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B263">
         <v>88978619</v>
       </c>
       <c r="C263" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D263" t="s">
         <v>14</v>
       </c>
       <c r="E263" t="s">
+        <v>338</v>
+      </c>
+      <c r="F263" t="s">
         <v>339</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>340</v>
       </c>
-      <c r="G263" t="s">
+      <c r="H263" t="b">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="L263" t="s">
         <v>341</v>
       </c>
-      <c r="H263" t="b">
-        <v>1</v>
-      </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
-      <c r="L263" t="s">
+      <c r="M263" t="s">
         <v>342</v>
       </c>
-      <c r="M263" t="s">
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>344</v>
       </c>
       <c r="B264">
         <v>64740373</v>
       </c>
       <c r="C264" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D264" t="s">
         <v>71</v>
       </c>
       <c r="E264" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F264" t="s">
+        <v>345</v>
+      </c>
+      <c r="G264" t="s">
         <v>346</v>
       </c>
-      <c r="G264" t="s">
+      <c r="H264" t="b">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="L264" t="s">
         <v>347</v>
       </c>
-      <c r="H264" t="b">
-        <v>1</v>
-      </c>
-      <c r="I264">
-        <v>0</v>
-      </c>
-      <c r="L264" t="s">
+      <c r="M264" t="s">
         <v>348</v>
       </c>
-      <c r="M264" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B265">
         <v>98401326</v>
       </c>
       <c r="C265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D265" t="s">
         <v>71</v>
       </c>
       <c r="E265" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F265" t="s">
+        <v>345</v>
+      </c>
+      <c r="G265" t="s">
         <v>346</v>
       </c>
-      <c r="G265" t="s">
+      <c r="H265" t="b">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="L265" t="s">
         <v>347</v>
       </c>
-      <c r="H265" t="b">
-        <v>1</v>
-      </c>
-      <c r="I265">
-        <v>0</v>
-      </c>
-      <c r="L265" t="s">
+      <c r="M265" t="s">
         <v>348</v>
       </c>
-      <c r="M265" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B266">
         <v>62036421</v>
       </c>
       <c r="C266" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D266" t="s">
         <v>71</v>
       </c>
       <c r="E266" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F266" t="s">
+        <v>345</v>
+      </c>
+      <c r="G266" t="s">
         <v>346</v>
       </c>
-      <c r="G266" t="s">
+      <c r="H266" t="b">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="L266" t="s">
         <v>347</v>
       </c>
-      <c r="H266" t="b">
-        <v>1</v>
-      </c>
-      <c r="I266">
-        <v>0</v>
-      </c>
-      <c r="L266" t="s">
+      <c r="M266" t="s">
         <v>348</v>
       </c>
-      <c r="M266" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B267">
         <v>32998084</v>
       </c>
       <c r="C267" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D267" t="s">
         <v>71</v>
       </c>
       <c r="E267" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F267" t="s">
+        <v>345</v>
+      </c>
+      <c r="G267" t="s">
         <v>346</v>
       </c>
-      <c r="G267" t="s">
+      <c r="H267" t="b">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="L267" t="s">
         <v>347</v>
       </c>
-      <c r="H267" t="b">
-        <v>1</v>
-      </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
-      <c r="L267" t="s">
+      <c r="M267" t="s">
         <v>348</v>
       </c>
-      <c r="M267" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B268">
         <v>48594716</v>
       </c>
       <c r="C268" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D268" t="s">
         <v>71</v>
       </c>
       <c r="E268" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F268" t="s">
+        <v>345</v>
+      </c>
+      <c r="G268" t="s">
         <v>346</v>
       </c>
-      <c r="G268" t="s">
+      <c r="H268" t="b">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="L268" t="s">
         <v>347</v>
       </c>
-      <c r="H268" t="b">
-        <v>1</v>
-      </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
-      <c r="L268" t="s">
+      <c r="M268" t="s">
         <v>348</v>
       </c>
-      <c r="M268" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B269">
         <v>29264161</v>
       </c>
       <c r="C269" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D269" t="s">
         <v>71</v>
       </c>
       <c r="E269" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F269" t="s">
+        <v>345</v>
+      </c>
+      <c r="G269" t="s">
         <v>346</v>
       </c>
-      <c r="G269" t="s">
+      <c r="H269" t="b">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="L269" t="s">
         <v>347</v>
       </c>
-      <c r="H269" t="b">
-        <v>1</v>
-      </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>348</v>
       </c>
-      <c r="M269" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B270">
         <v>33862339</v>
       </c>
       <c r="C270" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D270" t="s">
         <v>71</v>
       </c>
       <c r="E270" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F270" t="s">
+        <v>345</v>
+      </c>
+      <c r="G270" t="s">
         <v>346</v>
       </c>
-      <c r="G270" t="s">
+      <c r="H270" t="b">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="L270" t="s">
         <v>347</v>
       </c>
-      <c r="H270" t="b">
-        <v>1</v>
-      </c>
-      <c r="I270">
-        <v>0</v>
-      </c>
-      <c r="L270" t="s">
+      <c r="M270" t="s">
         <v>348</v>
       </c>
-      <c r="M270" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B271">
         <v>14961146</v>
       </c>
       <c r="C271" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D271" t="s">
         <v>71</v>
       </c>
       <c r="E271" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F271" t="s">
+        <v>345</v>
+      </c>
+      <c r="G271" t="s">
         <v>346</v>
       </c>
-      <c r="G271" t="s">
+      <c r="H271" t="b">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="L271" t="s">
         <v>347</v>
       </c>
-      <c r="H271" t="b">
-        <v>1</v>
-      </c>
-      <c r="I271">
-        <v>1</v>
-      </c>
-      <c r="L271" t="s">
+      <c r="M271" t="s">
         <v>348</v>
       </c>
-      <c r="M271" t="s">
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>350</v>
       </c>
       <c r="B272">
         <v>39136166</v>
       </c>
       <c r="C272" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D272" t="s">
         <v>14</v>
       </c>
       <c r="E272" t="s">
+        <v>351</v>
+      </c>
+      <c r="F272" t="s">
         <v>352</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
         <v>353</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="b">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="L272" t="s">
         <v>354</v>
       </c>
-      <c r="H272" t="b">
-        <v>1</v>
-      </c>
-      <c r="I272">
-        <v>0</v>
-      </c>
-      <c r="L272" t="s">
+      <c r="M272" t="s">
         <v>355</v>
       </c>
-      <c r="M272" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B273">
         <v>31648996</v>
       </c>
       <c r="C273" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D273" t="s">
         <v>14</v>
       </c>
       <c r="E273" t="s">
+        <v>351</v>
+      </c>
+      <c r="F273" t="s">
         <v>352</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G273" t="s">
         <v>353</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="b">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="L273" t="s">
         <v>354</v>
       </c>
-      <c r="H273" t="b">
-        <v>1</v>
-      </c>
-      <c r="I273">
-        <v>0</v>
-      </c>
-      <c r="L273" t="s">
+      <c r="M273" t="s">
         <v>355</v>
       </c>
-      <c r="M273" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B274">
         <v>21813714</v>
       </c>
       <c r="C274" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D274" t="s">
         <v>14</v>
       </c>
       <c r="E274" t="s">
+        <v>351</v>
+      </c>
+      <c r="F274" t="s">
         <v>352</v>
       </c>
-      <c r="F274" t="s">
+      <c r="G274" t="s">
         <v>353</v>
       </c>
-      <c r="G274" t="s">
+      <c r="H274" t="b">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="L274" t="s">
         <v>354</v>
       </c>
-      <c r="H274" t="b">
-        <v>1</v>
-      </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
-      <c r="L274" t="s">
+      <c r="M274" t="s">
         <v>355</v>
       </c>
-      <c r="M274" t="s">
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>357</v>
       </c>
       <c r="B275">
         <v>86692109</v>
       </c>
       <c r="C275" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D275" t="s">
         <v>85</v>
       </c>
       <c r="E275" t="s">
+        <v>358</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G275" t="s">
         <v>359</v>
       </c>
-      <c r="F275" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G275" t="s">
+      <c r="H275" t="b">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="L275" t="s">
         <v>360</v>
       </c>
-      <c r="H275" t="b">
-        <v>1</v>
-      </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-      <c r="L275" t="s">
+      <c r="M275" t="s">
         <v>361</v>
       </c>
-      <c r="M275" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B276">
         <v>41638625</v>
       </c>
       <c r="C276" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D276" t="s">
         <v>85</v>
       </c>
       <c r="E276" t="s">
+        <v>358</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G276" t="s">
         <v>359</v>
       </c>
-      <c r="F276" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G276" t="s">
+      <c r="H276" t="b">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="L276" t="s">
         <v>360</v>
       </c>
-      <c r="H276" t="b">
-        <v>1</v>
-      </c>
-      <c r="I276">
-        <v>0</v>
-      </c>
-      <c r="L276" t="s">
+      <c r="M276" t="s">
         <v>361</v>
       </c>
-      <c r="M276" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B277">
         <v>67907740</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D277" t="s">
         <v>85</v>
       </c>
       <c r="E277" t="s">
+        <v>358</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G277" t="s">
         <v>359</v>
       </c>
-      <c r="F277" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G277" t="s">
+      <c r="H277" t="b">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="L277" t="s">
         <v>360</v>
       </c>
-      <c r="H277" t="b">
-        <v>1</v>
-      </c>
-      <c r="I277">
-        <v>0</v>
-      </c>
-      <c r="L277" t="s">
+      <c r="M277" t="s">
         <v>361</v>
       </c>
-      <c r="M277" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B278">
         <v>83166278</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D278" t="s">
         <v>85</v>
       </c>
       <c r="E278" t="s">
+        <v>358</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G278" t="s">
         <v>359</v>
       </c>
-      <c r="F278" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G278" t="s">
+      <c r="H278" t="b">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="L278" t="s">
         <v>360</v>
       </c>
-      <c r="H278" t="b">
-        <v>1</v>
-      </c>
-      <c r="I278">
-        <v>0</v>
-      </c>
-      <c r="L278" t="s">
+      <c r="M278" t="s">
         <v>361</v>
       </c>
-      <c r="M278" t="s">
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>363</v>
       </c>
       <c r="B279">
         <v>111</v>
       </c>
       <c r="C279" t="s">
+        <v>363</v>
+      </c>
+      <c r="D279" t="s">
         <v>364</v>
       </c>
-      <c r="D279" t="s">
+      <c r="E279" t="s">
         <v>365</v>
       </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>366</v>
       </c>
-      <c r="F279" t="s">
+      <c r="G279" t="s">
         <v>367</v>
       </c>
-      <c r="G279" t="s">
+      <c r="H279" t="b">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
         <v>368</v>
       </c>
-      <c r="H279" t="b">
-        <v>1</v>
-      </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
-      <c r="J279" t="s">
+      <c r="L279" t="s">
         <v>369</v>
       </c>
-      <c r="L279" t="s">
+      <c r="M279" t="s">
         <v>370</v>
-      </c>
-      <c r="M279" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
